--- a/Multilingual Cloze Tests/Distances/Surprisal/NorthWindandSun_Surprisal_Orthographic.xlsx
+++ b/Multilingual Cloze Tests/Distances/Surprisal/NorthWindandSun_Surprisal_Orthographic.xlsx
@@ -665,64 +665,64 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43.83567325332544</v>
+        <v>41.7136241826554</v>
       </c>
       <c r="D2" t="n">
-        <v>3.652972771110454</v>
+        <v>3.476135348554617</v>
       </c>
       <c r="E2" t="n">
-        <v>50.45052091587432</v>
+        <v>51.08999881606106</v>
       </c>
       <c r="F2" t="n">
-        <v>4.204210076322859</v>
+        <v>4.257499901338422</v>
       </c>
       <c r="G2" t="n">
-        <v>72.69284637960315</v>
+        <v>74.22471450213982</v>
       </c>
       <c r="H2" t="n">
-        <v>3.825939283137008</v>
+        <v>3.906563921165253</v>
       </c>
       <c r="I2" t="n">
-        <v>73.19942847597179</v>
+        <v>72.9831494743942</v>
       </c>
       <c r="J2" t="n">
-        <v>3.659971423798589</v>
+        <v>3.649157473719709</v>
       </c>
       <c r="K2" t="n">
-        <v>40.01893193810791</v>
+        <v>38.80255901208918</v>
       </c>
       <c r="L2" t="n">
-        <v>4.446547993123102</v>
+        <v>4.311395445787687</v>
       </c>
       <c r="M2" t="n">
-        <v>42.99017672477008</v>
+        <v>44.10716459752715</v>
       </c>
       <c r="N2" t="n">
-        <v>3.582514727064173</v>
+        <v>3.675597049793929</v>
       </c>
       <c r="O2" t="n">
-        <v>49.73947108073945</v>
+        <v>48.45573916987783</v>
       </c>
       <c r="P2" t="n">
-        <v>3.826113160056881</v>
+        <v>3.727364551529063</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.27529268119888</v>
+        <v>53.05384996496352</v>
       </c>
       <c r="R2" t="n">
-        <v>3.885467062087581</v>
+        <v>3.857673384555526</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -749,28 +749,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM2" t="n">
         <v>6</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS2" t="n">
         <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -809,112 +809,112 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.50927706317525</v>
+        <v>39.42210410011242</v>
       </c>
       <c r="D3" t="n">
-        <v>3.292439755264604</v>
+        <v>3.285175341676035</v>
       </c>
       <c r="E3" t="n">
-        <v>60.23773726806139</v>
+        <v>58.96445049575881</v>
       </c>
       <c r="F3" t="n">
-        <v>4.302695519147242</v>
+        <v>4.211746463982773</v>
       </c>
       <c r="G3" t="n">
-        <v>74.4126098016275</v>
+        <v>78.82453871309644</v>
       </c>
       <c r="H3" t="n">
-        <v>4.134033877868194</v>
+        <v>4.379141039616469</v>
       </c>
       <c r="I3" t="n">
-        <v>60.10104985319461</v>
+        <v>60.48417988423841</v>
       </c>
       <c r="J3" t="n">
-        <v>3.163213150168137</v>
+        <v>3.183377888644126</v>
       </c>
       <c r="K3" t="n">
-        <v>47.01106743294309</v>
+        <v>47.20392673637468</v>
       </c>
       <c r="L3" t="n">
-        <v>4.701106743294309</v>
+        <v>4.720392673637469</v>
       </c>
       <c r="M3" t="n">
-        <v>75.19648206905238</v>
+        <v>77.89711215935567</v>
       </c>
       <c r="N3" t="n">
-        <v>4.423322474650141</v>
+        <v>4.582183068197392</v>
       </c>
       <c r="O3" t="n">
-        <v>48.74136412744801</v>
+        <v>47.27140790196577</v>
       </c>
       <c r="P3" t="n">
-        <v>3.749335702111386</v>
+        <v>3.636262146305059</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.88708394507174</v>
+        <v>58.58110285584317</v>
       </c>
       <c r="R3" t="n">
-        <v>3.966592460357716</v>
+        <v>3.999754088865618</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>4</v>
@@ -953,64 +953,64 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34.40604292821595</v>
+        <v>33.22375495698961</v>
       </c>
       <c r="D4" t="n">
-        <v>3.127822084383268</v>
+        <v>3.020341359726328</v>
       </c>
       <c r="E4" t="n">
-        <v>50.1501578138234</v>
+        <v>52.17993098835751</v>
       </c>
       <c r="F4" t="n">
-        <v>3.857704447217185</v>
+        <v>4.013840845258271</v>
       </c>
       <c r="G4" t="n">
-        <v>80.67302745962427</v>
+        <v>83.40805812559422</v>
       </c>
       <c r="H4" t="n">
-        <v>4.033651372981213</v>
+        <v>4.170402906279711</v>
       </c>
       <c r="I4" t="n">
-        <v>71.69575745055832</v>
+        <v>70.99225288851116</v>
       </c>
       <c r="J4" t="n">
-        <v>3.414083688121824</v>
+        <v>3.380583470881484</v>
       </c>
       <c r="K4" t="n">
-        <v>40.86776499299685</v>
+        <v>40.31747464847361</v>
       </c>
       <c r="L4" t="n">
-        <v>4.54086277699965</v>
+        <v>4.479719405385956</v>
       </c>
       <c r="M4" t="n">
-        <v>54.46999002118802</v>
+        <v>56.17029026627033</v>
       </c>
       <c r="N4" t="n">
-        <v>4.189999232399079</v>
+        <v>4.320791558943871</v>
       </c>
       <c r="O4" t="n">
-        <v>45.31324041265543</v>
+        <v>44.67535818735582</v>
       </c>
       <c r="P4" t="n">
-        <v>3.776103367721285</v>
+        <v>3.722946515612986</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.93942586843746</v>
+        <v>54.42387429450746</v>
       </c>
       <c r="R4" t="n">
-        <v>3.848603852831929</v>
+        <v>3.872660866012658</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -1037,28 +1037,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM4" t="n">
         <v>3</v>
@@ -1073,16 +1073,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS4" t="n">
         <v>5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1097,64 +1097,64 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40.52277053540995</v>
+        <v>41.80948764463866</v>
       </c>
       <c r="D5" t="n">
-        <v>3.683888230491815</v>
+        <v>3.800862513148969</v>
       </c>
       <c r="E5" t="n">
-        <v>45.5462556105927</v>
+        <v>45.39747014822947</v>
       </c>
       <c r="F5" t="n">
-        <v>4.140568691872064</v>
+        <v>4.127042740748134</v>
       </c>
       <c r="G5" t="n">
-        <v>93.13717466558192</v>
+        <v>97.56516939986945</v>
       </c>
       <c r="H5" t="n">
-        <v>4.435103555503901</v>
+        <v>4.645960447612831</v>
       </c>
       <c r="I5" t="n">
-        <v>73.21789153407688</v>
+        <v>72.1288897569987</v>
       </c>
       <c r="J5" t="n">
-        <v>3.660894576703844</v>
+        <v>3.606444487849935</v>
       </c>
       <c r="K5" t="n">
-        <v>54.52319871401367</v>
+        <v>54.67177172999628</v>
       </c>
       <c r="L5" t="n">
-        <v>4.956654428546697</v>
+        <v>4.970161066363298</v>
       </c>
       <c r="M5" t="n">
-        <v>76.39695939456081</v>
+        <v>78.79326412461864</v>
       </c>
       <c r="N5" t="n">
-        <v>4.493938787915342</v>
+        <v>4.63489788968345</v>
       </c>
       <c r="O5" t="n">
-        <v>45.21546414983022</v>
+        <v>44.97090541364322</v>
       </c>
       <c r="P5" t="n">
-        <v>4.110496740893657</v>
+        <v>4.088264128513019</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.22281637200945</v>
+        <v>62.19099403114206</v>
       </c>
       <c r="R5" t="n">
-        <v>4.211649287418188</v>
+        <v>4.267661896274234</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
         <v>7</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM5" t="n">
         <v>2</v>
@@ -1217,16 +1217,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1241,100 +1241,100 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39.57193078748192</v>
+        <v>39.20155432896775</v>
       </c>
       <c r="D6" t="n">
-        <v>3.597448253407447</v>
+        <v>3.563777666269796</v>
       </c>
       <c r="E6" t="n">
-        <v>44.06812952850537</v>
+        <v>43.31428296224399</v>
       </c>
       <c r="F6" t="n">
-        <v>4.006193593500488</v>
+        <v>3.937662087476726</v>
       </c>
       <c r="G6" t="n">
-        <v>96.79929568334802</v>
+        <v>99.22763127576779</v>
       </c>
       <c r="H6" t="n">
-        <v>4.609490270635621</v>
+        <v>4.725125298846084</v>
       </c>
       <c r="I6" t="n">
-        <v>76.6028188662885</v>
+        <v>71.87303958113962</v>
       </c>
       <c r="J6" t="n">
-        <v>3.647753279347071</v>
+        <v>3.422525694339983</v>
       </c>
       <c r="K6" t="n">
-        <v>52.39124760319521</v>
+        <v>52.49047361578352</v>
       </c>
       <c r="L6" t="n">
-        <v>4.762840691199564</v>
+        <v>4.771861237798501</v>
       </c>
       <c r="M6" t="n">
-        <v>69.05027678914051</v>
+        <v>65.52301880980467</v>
       </c>
       <c r="N6" t="n">
-        <v>4.0617809875965</v>
+        <v>3.854295224106157</v>
       </c>
       <c r="O6" t="n">
-        <v>56.09947451056415</v>
+        <v>57.44153904913374</v>
       </c>
       <c r="P6" t="n">
-        <v>4.315344193120318</v>
+        <v>4.418579926856442</v>
       </c>
       <c r="Q6" t="n">
-        <v>62.08331053836053</v>
+        <v>61.29593423183444</v>
       </c>
       <c r="R6" t="n">
-        <v>4.142978752686716</v>
+        <v>4.099118162241956</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AI6" t="n">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AM6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1385,64 +1385,64 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.1358183873722</v>
+        <v>47.22346870345858</v>
       </c>
       <c r="D7" t="n">
-        <v>3.844651532281015</v>
+        <v>3.935289058621548</v>
       </c>
       <c r="E7" t="n">
-        <v>54.99950660320074</v>
+        <v>56.58654561387871</v>
       </c>
       <c r="F7" t="n">
-        <v>3.928536185942909</v>
+        <v>4.041896115277051</v>
       </c>
       <c r="G7" t="n">
-        <v>100.3513528713041</v>
+        <v>103.3488520512595</v>
       </c>
       <c r="H7" t="n">
-        <v>4.363102298752351</v>
+        <v>4.493428350054763</v>
       </c>
       <c r="I7" t="n">
-        <v>108.193187018927</v>
+        <v>110.5430977058036</v>
       </c>
       <c r="J7" t="n">
-        <v>4.32772748075708</v>
+        <v>4.421723908232143</v>
       </c>
       <c r="K7" t="n">
-        <v>42.17404027971849</v>
+        <v>42.84461717285764</v>
       </c>
       <c r="L7" t="n">
-        <v>4.217404027971849</v>
+        <v>4.284461717285764</v>
       </c>
       <c r="M7" t="n">
-        <v>52.04382321758322</v>
+        <v>53.80700124524587</v>
       </c>
       <c r="N7" t="n">
-        <v>3.717415944113088</v>
+        <v>3.843357231803277</v>
       </c>
       <c r="O7" t="n">
-        <v>52.61181638819953</v>
+        <v>53.35889398047597</v>
       </c>
       <c r="P7" t="n">
-        <v>3.757986884871395</v>
+        <v>3.811349570033998</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.21564925232931</v>
+        <v>66.81606806756855</v>
       </c>
       <c r="R7" t="n">
-        <v>4.022403479241384</v>
+        <v>4.118786564472649</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1469,28 +1469,28 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>2</v>
-      </c>
       <c r="AK7" t="n">
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM7" t="n">
         <v>6</v>
@@ -1505,16 +1505,16 @@
         <v>0.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1529,64 +1529,64 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>51.87610508052953</v>
+        <v>53.11323180842375</v>
       </c>
       <c r="D8" t="n">
-        <v>3.705436077180681</v>
+        <v>3.793802272030268</v>
       </c>
       <c r="E8" t="n">
-        <v>61.02418154592081</v>
+        <v>62.91086706514571</v>
       </c>
       <c r="F8" t="n">
-        <v>4.694167811224679</v>
+        <v>4.839297466549671</v>
       </c>
       <c r="G8" t="n">
-        <v>98.48233288222994</v>
+        <v>102.5444199739379</v>
       </c>
       <c r="H8" t="n">
-        <v>4.924116644111497</v>
+        <v>5.127220998696896</v>
       </c>
       <c r="I8" t="n">
-        <v>101.7823061314734</v>
+        <v>104.4098988028253</v>
       </c>
       <c r="J8" t="n">
-        <v>4.240929422144723</v>
+        <v>4.350412450117722</v>
       </c>
       <c r="K8" t="n">
-        <v>46.05061328274949</v>
+        <v>46.66296549881329</v>
       </c>
       <c r="L8" t="n">
-        <v>4.605061328274949</v>
+        <v>4.666296549881329</v>
       </c>
       <c r="M8" t="n">
-        <v>52.60103346472726</v>
+        <v>54.16717869889408</v>
       </c>
       <c r="N8" t="n">
-        <v>3.757216676051947</v>
+        <v>3.869084192778149</v>
       </c>
       <c r="O8" t="n">
-        <v>47.0438415476291</v>
+        <v>47.38271087385529</v>
       </c>
       <c r="P8" t="n">
-        <v>3.618757042125316</v>
+        <v>3.644823913373484</v>
       </c>
       <c r="Q8" t="n">
-        <v>65.55148770503708</v>
+        <v>67.31303896027076</v>
       </c>
       <c r="R8" t="n">
-        <v>4.220812143016256</v>
+        <v>4.32727683477536</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
@@ -1613,28 +1613,28 @@
         <v>0.0625</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1649,16 +1649,16 @@
         <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1673,64 +1673,64 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.34554996510946</v>
+        <v>41.18176613973561</v>
       </c>
       <c r="D9" t="n">
-        <v>3.758686360464496</v>
+        <v>3.743796921794146</v>
       </c>
       <c r="E9" t="n">
-        <v>62.01453135000829</v>
+        <v>60.58396941674917</v>
       </c>
       <c r="F9" t="n">
-        <v>4.134302090000553</v>
+        <v>4.038931294449945</v>
       </c>
       <c r="G9" t="n">
-        <v>91.70909409253491</v>
+        <v>92.9145663952544</v>
       </c>
       <c r="H9" t="n">
-        <v>4.168595186024314</v>
+        <v>4.223389381602472</v>
       </c>
       <c r="I9" t="n">
-        <v>80.22529176792271</v>
+        <v>82.1143817237879</v>
       </c>
       <c r="J9" t="n">
-        <v>3.646604171269213</v>
+        <v>3.732471896535814</v>
       </c>
       <c r="K9" t="n">
-        <v>42.43875084082993</v>
+        <v>42.26226871563905</v>
       </c>
       <c r="L9" t="n">
-        <v>4.715416760092215</v>
+        <v>4.695807635071005</v>
       </c>
       <c r="M9" t="n">
-        <v>57.49498174605657</v>
+        <v>59.28846588883823</v>
       </c>
       <c r="N9" t="n">
-        <v>3.832998783070439</v>
+        <v>3.952564392589215</v>
       </c>
       <c r="O9" t="n">
-        <v>39.10656207863522</v>
+        <v>39.70122196617815</v>
       </c>
       <c r="P9" t="n">
-        <v>3.00819708297194</v>
+        <v>3.053940151244474</v>
       </c>
       <c r="Q9" t="n">
-        <v>59.19068026301387</v>
+        <v>59.7209486065975</v>
       </c>
       <c r="R9" t="n">
-        <v>3.894971490556167</v>
+        <v>3.920128810469582</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W9" t="n">
         <v>2</v>
@@ -1757,28 +1757,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM9" t="n">
         <v>4</v>
@@ -1793,16 +1793,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>4</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="10">
@@ -1817,64 +1817,64 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>45.52614564629524</v>
+        <v>43.42079902697155</v>
       </c>
       <c r="D10" t="n">
-        <v>3.793845470524603</v>
+        <v>3.618399918914296</v>
       </c>
       <c r="E10" t="n">
-        <v>48.59240116129801</v>
+        <v>48.70290091568587</v>
       </c>
       <c r="F10" t="n">
-        <v>4.049366763441501</v>
+        <v>4.058575076307156</v>
       </c>
       <c r="G10" t="n">
-        <v>73.90138353582735</v>
+        <v>75.05676978467257</v>
       </c>
       <c r="H10" t="n">
-        <v>3.88954650188565</v>
+        <v>3.950356304456452</v>
       </c>
       <c r="I10" t="n">
-        <v>75.22006359568948</v>
+        <v>75.24311376386726</v>
       </c>
       <c r="J10" t="n">
-        <v>3.761003179784474</v>
+        <v>3.762155688193363</v>
       </c>
       <c r="K10" t="n">
-        <v>36.26325074176474</v>
+        <v>35.52845753795891</v>
       </c>
       <c r="L10" t="n">
-        <v>4.029250082418305</v>
+        <v>3.947606393106545</v>
       </c>
       <c r="M10" t="n">
-        <v>42.39088961346474</v>
+        <v>43.05024364600706</v>
       </c>
       <c r="N10" t="n">
-        <v>3.532574134455396</v>
+        <v>3.587520303833923</v>
       </c>
       <c r="O10" t="n">
-        <v>51.17336700120229</v>
+        <v>50.53861813824219</v>
       </c>
       <c r="P10" t="n">
-        <v>3.936412846246329</v>
+        <v>3.887586010634014</v>
       </c>
       <c r="Q10" t="n">
-        <v>53.29535732793455</v>
+        <v>53.07727183048649</v>
       </c>
       <c r="R10" t="n">
-        <v>3.855999854108037</v>
+        <v>3.830314242206536</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1901,28 +1901,28 @@
         <v>0.4375</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>3</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>4</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -1937,16 +1937,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -1961,64 +1961,64 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>39.93049776527375</v>
+        <v>40.59929795174973</v>
       </c>
       <c r="D11" t="n">
-        <v>3.071576751174904</v>
+        <v>3.123022919365364</v>
       </c>
       <c r="E11" t="n">
-        <v>54.73108650066169</v>
+        <v>55.54823286523298</v>
       </c>
       <c r="F11" t="n">
-        <v>4.210083576973976</v>
+        <v>4.272940989633307</v>
       </c>
       <c r="G11" t="n">
-        <v>63.43759156165339</v>
+        <v>63.91395931005663</v>
       </c>
       <c r="H11" t="n">
-        <v>3.731623033038435</v>
+        <v>3.759644665297449</v>
       </c>
       <c r="I11" t="n">
-        <v>58.95264052043983</v>
+        <v>58.69225267614621</v>
       </c>
       <c r="J11" t="n">
-        <v>3.102770553707359</v>
+        <v>3.089065930323485</v>
       </c>
       <c r="K11" t="n">
-        <v>24.65011689794419</v>
+        <v>24.37626627420122</v>
       </c>
       <c r="L11" t="n">
-        <v>4.108352816324031</v>
+        <v>4.062711045700204</v>
       </c>
       <c r="M11" t="n">
-        <v>62.6096179371924</v>
+        <v>64.85002256846452</v>
       </c>
       <c r="N11" t="n">
-        <v>3.913101121074526</v>
+        <v>4.053126410529034</v>
       </c>
       <c r="O11" t="n">
-        <v>31.50588471573457</v>
+        <v>31.31746405736713</v>
       </c>
       <c r="P11" t="n">
-        <v>2.625490392977881</v>
+        <v>2.60978867144726</v>
       </c>
       <c r="Q11" t="n">
-        <v>47.97391941412855</v>
+        <v>48.47107081474549</v>
       </c>
       <c r="R11" t="n">
-        <v>3.537571177895873</v>
+        <v>3.567185804613729</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W11" t="n">
         <v>3</v>
@@ -2045,28 +2045,28 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>2</v>
-      </c>
       <c r="AK11" t="n">
         <v>3</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
@@ -2081,16 +2081,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -2105,64 +2105,64 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.06921509717363</v>
+        <v>44.71633029029756</v>
       </c>
       <c r="D12" t="n">
-        <v>3.38993962285951</v>
+        <v>3.439717714638273</v>
       </c>
       <c r="E12" t="n">
-        <v>45.80807335364728</v>
+        <v>47.72169691594772</v>
       </c>
       <c r="F12" t="n">
-        <v>4.164370304877026</v>
+        <v>4.338336083267974</v>
       </c>
       <c r="G12" t="n">
-        <v>89.11184692822624</v>
+        <v>92.12578529617986</v>
       </c>
       <c r="H12" t="n">
-        <v>4.243421282296488</v>
+        <v>4.386942156960946</v>
       </c>
       <c r="I12" t="n">
-        <v>79.06908115089803</v>
+        <v>80.97925701913553</v>
       </c>
       <c r="J12" t="n">
-        <v>3.765194340518954</v>
+        <v>3.856155096149311</v>
       </c>
       <c r="K12" t="n">
-        <v>19.8377070571264</v>
+        <v>19.92149910884338</v>
       </c>
       <c r="L12" t="n">
-        <v>3.967541411425281</v>
+        <v>3.984299821768676</v>
       </c>
       <c r="M12" t="n">
-        <v>45.90898308768209</v>
+        <v>47.4354126736781</v>
       </c>
       <c r="N12" t="n">
-        <v>4.173543917062008</v>
+        <v>4.312310243061646</v>
       </c>
       <c r="O12" t="n">
-        <v>67.53429648829865</v>
+        <v>68.86689960108176</v>
       </c>
       <c r="P12" t="n">
-        <v>4.502286432553243</v>
+        <v>4.591126640072117</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.90560045186461</v>
+        <v>57.3952687007377</v>
       </c>
       <c r="R12" t="n">
-        <v>4.029471044513215</v>
+        <v>4.129841107988421</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -2189,28 +2189,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>2</v>
-      </c>
       <c r="AK12" t="n">
         <v>2</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2225,16 +2225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -2249,52 +2249,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.13870368635638</v>
+        <v>49.51922389294428</v>
       </c>
       <c r="D13" t="n">
-        <v>4.094891973863032</v>
+        <v>4.126601991078689</v>
       </c>
       <c r="E13" t="n">
-        <v>46.73277181729024</v>
+        <v>47.04462088770654</v>
       </c>
       <c r="F13" t="n">
-        <v>4.673277181729024</v>
+        <v>4.704462088770653</v>
       </c>
       <c r="G13" t="n">
-        <v>106.6397752144386</v>
+        <v>107.3673294755006</v>
       </c>
       <c r="H13" t="n">
-        <v>4.636511965845157</v>
+        <v>4.668144759804372</v>
       </c>
       <c r="I13" t="n">
-        <v>89.75214949449116</v>
+        <v>90.41581965088101</v>
       </c>
       <c r="J13" t="n">
-        <v>4.273911880690056</v>
+        <v>4.305515221470524</v>
       </c>
       <c r="K13" t="n">
-        <v>33.84447129678344</v>
+        <v>34.06525205398506</v>
       </c>
       <c r="L13" t="n">
-        <v>4.834924470969063</v>
+        <v>4.866464579140724</v>
       </c>
       <c r="M13" t="n">
-        <v>69.87119380279543</v>
+        <v>70.36443168255606</v>
       </c>
       <c r="N13" t="n">
-        <v>4.658079586853029</v>
+        <v>4.690962112170403</v>
       </c>
       <c r="O13" t="n">
-        <v>58.84414448993932</v>
+        <v>59.23460832026796</v>
       </c>
       <c r="P13" t="n">
-        <v>4.526472653072254</v>
+        <v>4.556508332328304</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.97474425744208</v>
+        <v>65.43018370912021</v>
       </c>
       <c r="R13" t="n">
-        <v>4.528295673288802</v>
+        <v>4.559808440680524</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
@@ -2393,64 +2393,64 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54.89884058773468</v>
+        <v>55.55471540432325</v>
       </c>
       <c r="D14" t="n">
-        <v>4.222987737518052</v>
+        <v>4.273439646486404</v>
       </c>
       <c r="E14" t="n">
-        <v>45.31545652598886</v>
+        <v>45.58353407973392</v>
       </c>
       <c r="F14" t="n">
-        <v>4.531545652598886</v>
+        <v>4.558353407973391</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5574066436028</v>
+        <v>99.58873257985904</v>
       </c>
       <c r="H14" t="n">
-        <v>4.589452462765338</v>
+        <v>4.329944894776482</v>
       </c>
       <c r="I14" t="n">
-        <v>92.33640607094883</v>
+        <v>92.97403167160685</v>
       </c>
       <c r="J14" t="n">
-        <v>4.396971717664228</v>
+        <v>4.427334841505088</v>
       </c>
       <c r="K14" t="n">
-        <v>35.39215584485862</v>
+        <v>36.11534870803951</v>
       </c>
       <c r="L14" t="n">
-        <v>5.056022263551233</v>
+        <v>5.15933552971993</v>
       </c>
       <c r="M14" t="n">
-        <v>70.5397040455577</v>
+        <v>70.31697528833118</v>
       </c>
       <c r="N14" t="n">
-        <v>4.408731502847356</v>
+        <v>4.3948109555207</v>
       </c>
       <c r="O14" t="n">
-        <v>73.19301009524969</v>
+        <v>74.51241124035188</v>
       </c>
       <c r="P14" t="n">
-        <v>4.574563130953105</v>
+        <v>4.657025702521993</v>
       </c>
       <c r="Q14" t="n">
-        <v>68.17613997342016</v>
+        <v>67.80653556746365</v>
       </c>
       <c r="R14" t="n">
-        <v>4.540039209699742</v>
+        <v>4.542892139786284</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
@@ -2465,16 +2465,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2537,64 +2537,64 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50.61641599786769</v>
+        <v>49.40296613005958</v>
       </c>
       <c r="D15" t="n">
-        <v>3.893570461374438</v>
+        <v>3.800228163850737</v>
       </c>
       <c r="E15" t="n">
-        <v>44.53569257796339</v>
+        <v>42.90434247865575</v>
       </c>
       <c r="F15" t="n">
-        <v>4.048699325269399</v>
+        <v>3.900394770786886</v>
       </c>
       <c r="G15" t="n">
-        <v>99.20616572479587</v>
+        <v>102.2219198640009</v>
       </c>
       <c r="H15" t="n">
-        <v>4.133590238533161</v>
+        <v>4.259246661000038</v>
       </c>
       <c r="I15" t="n">
-        <v>104.9635829361355</v>
+        <v>105.648522275829</v>
       </c>
       <c r="J15" t="n">
-        <v>4.19854331744542</v>
+        <v>4.225940891033159</v>
       </c>
       <c r="K15" t="n">
-        <v>27.89595905945825</v>
+        <v>27.56779998068369</v>
       </c>
       <c r="L15" t="n">
-        <v>4.649326509909708</v>
+        <v>4.594633330113949</v>
       </c>
       <c r="M15" t="n">
-        <v>44.18643299341884</v>
+        <v>45.44313253766605</v>
       </c>
       <c r="N15" t="n">
-        <v>3.68220274945157</v>
+        <v>3.78692771147217</v>
       </c>
       <c r="O15" t="n">
-        <v>67.7916949521736</v>
+        <v>68.61796522313385</v>
       </c>
       <c r="P15" t="n">
-        <v>3.987746761892565</v>
+        <v>4.036350895478462</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.74227774883045</v>
+        <v>63.11523549857554</v>
       </c>
       <c r="R15" t="n">
-        <v>4.084811337696609</v>
+        <v>4.086246060533629</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
@@ -2621,28 +2621,28 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="AE15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
         <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
@@ -2657,16 +2657,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -2681,76 +2681,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>49.43804895561294</v>
+        <v>46.03420674968715</v>
       </c>
       <c r="D16" t="n">
-        <v>3.802926842739457</v>
+        <v>3.541092826899011</v>
       </c>
       <c r="E16" t="n">
-        <v>42.88671381118726</v>
+        <v>41.80661083730543</v>
       </c>
       <c r="F16" t="n">
-        <v>4.288671381118726</v>
+        <v>4.180661083730543</v>
       </c>
       <c r="G16" t="n">
-        <v>105.1218971719196</v>
+        <v>109.4452350493267</v>
       </c>
       <c r="H16" t="n">
-        <v>5.005804627234268</v>
+        <v>5.211677859491747</v>
       </c>
       <c r="I16" t="n">
-        <v>106.7158090412011</v>
+        <v>107.0285328718283</v>
       </c>
       <c r="J16" t="n">
-        <v>4.446492043383377</v>
+        <v>4.459522202992848</v>
       </c>
       <c r="K16" t="n">
-        <v>31.97451824176481</v>
+        <v>32.40752905547728</v>
       </c>
       <c r="L16" t="n">
-        <v>4.567788320252115</v>
+        <v>4.629647007925326</v>
       </c>
       <c r="M16" t="n">
-        <v>53.00028348244307</v>
+        <v>53.80640794049513</v>
       </c>
       <c r="N16" t="n">
-        <v>4.076944883264852</v>
+        <v>4.138954456961163</v>
       </c>
       <c r="O16" t="n">
-        <v>71.46225229923975</v>
+        <v>69.24377616549249</v>
       </c>
       <c r="P16" t="n">
-        <v>4.466390768702484</v>
+        <v>4.327736010343282</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.79993185762407</v>
+        <v>65.68175695280179</v>
       </c>
       <c r="R16" t="n">
-        <v>4.379288409527897</v>
+        <v>4.355613064049131</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
@@ -2765,28 +2765,28 @@
         <v>0.0625</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK16" t="n">
         <v>4</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM16" t="n">
         <v>3</v>
@@ -2801,16 +2801,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS16" t="n">
         <v>8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -2825,64 +2825,64 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>53.67152235541698</v>
+        <v>52.58944300981727</v>
       </c>
       <c r="D17" t="n">
-        <v>4.472626862951415</v>
+        <v>4.382453584151438</v>
       </c>
       <c r="E17" t="n">
-        <v>53.52198325576385</v>
+        <v>49.67004783807022</v>
       </c>
       <c r="F17" t="n">
-        <v>4.460165271313654</v>
+        <v>4.139170653172519</v>
       </c>
       <c r="G17" t="n">
-        <v>102.5878506363368</v>
+        <v>102.9432742013834</v>
       </c>
       <c r="H17" t="n">
-        <v>4.663084119833488</v>
+        <v>4.679239736426518</v>
       </c>
       <c r="I17" t="n">
-        <v>94.02784833043869</v>
+        <v>96.8429353058858</v>
       </c>
       <c r="J17" t="n">
-        <v>4.273993105929032</v>
+        <v>4.401951604812991</v>
       </c>
       <c r="K17" t="n">
-        <v>21.02602834050933</v>
+        <v>20.21195843952132</v>
       </c>
       <c r="L17" t="n">
-        <v>4.205205668101867</v>
+        <v>4.042391687904264</v>
       </c>
       <c r="M17" t="n">
-        <v>58.07480846303881</v>
+        <v>61.12266976169015</v>
       </c>
       <c r="N17" t="n">
-        <v>4.148200604502772</v>
+        <v>4.365904982977868</v>
       </c>
       <c r="O17" t="n">
-        <v>65.28590544271067</v>
+        <v>63.43456102196405</v>
       </c>
       <c r="P17" t="n">
-        <v>4.080369090169417</v>
+        <v>3.964660063872753</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.02799240345929</v>
+        <v>63.83069851119031</v>
       </c>
       <c r="R17" t="n">
-        <v>4.329092103257378</v>
+        <v>4.282253187616908</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
@@ -2909,28 +2909,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM17" t="n">
         <v>3</v>
@@ -2945,16 +2945,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>7</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="18">
@@ -2969,112 +2969,112 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>42.37091821860372</v>
+        <v>42.36380510457119</v>
       </c>
       <c r="D18" t="n">
-        <v>3.53090985155031</v>
+        <v>3.530317092047599</v>
       </c>
       <c r="E18" t="n">
-        <v>59.59025413040292</v>
+        <v>58.27108091171045</v>
       </c>
       <c r="F18" t="n">
-        <v>4.256446723600209</v>
+        <v>4.162220065122175</v>
       </c>
       <c r="G18" t="n">
-        <v>71.03381978550958</v>
+        <v>74.292367701982</v>
       </c>
       <c r="H18" t="n">
-        <v>3.946323321417199</v>
+        <v>4.127353761221222</v>
       </c>
       <c r="I18" t="n">
-        <v>59.78520479620762</v>
+        <v>59.79426551618253</v>
       </c>
       <c r="J18" t="n">
-        <v>3.14658972611619</v>
+        <v>3.14706660611487</v>
       </c>
       <c r="K18" t="n">
-        <v>42.45303015753198</v>
+        <v>42.06580457168741</v>
       </c>
       <c r="L18" t="n">
-        <v>4.245303015753199</v>
+        <v>4.20658045716874</v>
       </c>
       <c r="M18" t="n">
-        <v>75.73159182592624</v>
+        <v>77.39144034833592</v>
       </c>
       <c r="N18" t="n">
-        <v>4.454799519172132</v>
+        <v>4.552437667549172</v>
       </c>
       <c r="O18" t="n">
-        <v>49.43531158038072</v>
+        <v>48.80190973270264</v>
       </c>
       <c r="P18" t="n">
-        <v>3.802716275413901</v>
+        <v>3.753993056361742</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.20001864208039</v>
+        <v>57.56866769816745</v>
       </c>
       <c r="R18" t="n">
-        <v>3.911869776146163</v>
+        <v>3.925709815083646</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AA18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG18" t="n">
         <v>2</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK18" t="n">
         <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3113,64 +3113,64 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40.50242241096174</v>
+        <v>41.02016037969396</v>
       </c>
       <c r="D19" t="n">
-        <v>3.115570954689365</v>
+        <v>3.155396952284151</v>
       </c>
       <c r="E19" t="n">
-        <v>58.01521858874928</v>
+        <v>59.38212297126359</v>
       </c>
       <c r="F19" t="n">
-        <v>4.462709122211483</v>
+        <v>4.567855613174122</v>
       </c>
       <c r="G19" t="n">
-        <v>59.9661863739072</v>
+        <v>60.9895678809004</v>
       </c>
       <c r="H19" t="n">
-        <v>3.527422727876894</v>
+        <v>3.587621640052964</v>
       </c>
       <c r="I19" t="n">
-        <v>57.34287860804475</v>
+        <v>57.91887920584728</v>
       </c>
       <c r="J19" t="n">
-        <v>3.018046242528671</v>
+        <v>3.048362063465646</v>
       </c>
       <c r="K19" t="n">
-        <v>24.77064806862512</v>
+        <v>24.86959885980171</v>
       </c>
       <c r="L19" t="n">
-        <v>4.128441344770853</v>
+        <v>4.144933143300284</v>
       </c>
       <c r="M19" t="n">
-        <v>65.38187244290116</v>
+        <v>67.26354732082045</v>
       </c>
       <c r="N19" t="n">
-        <v>4.086367027681322</v>
+        <v>4.203971707551279</v>
       </c>
       <c r="O19" t="n">
-        <v>31.35879675387327</v>
+        <v>31.50870509202529</v>
       </c>
       <c r="P19" t="n">
-        <v>2.613233062822773</v>
+        <v>2.625725424335441</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.19114617815179</v>
+        <v>48.99322595862181</v>
       </c>
       <c r="R19" t="n">
-        <v>3.564541497511623</v>
+        <v>3.619123792023412</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -3197,28 +3197,28 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG19" t="n">
         <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>2</v>
-      </c>
       <c r="AK19" t="n">
         <v>3</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
@@ -3233,16 +3233,16 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -3257,64 +3257,64 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44.38460693948159</v>
+        <v>44.89184100920124</v>
       </c>
       <c r="D20" t="n">
-        <v>3.170329067105828</v>
+        <v>3.206560072085803</v>
       </c>
       <c r="E20" t="n">
-        <v>68.47083366043543</v>
+        <v>71.04239042936209</v>
       </c>
       <c r="F20" t="n">
-        <v>4.564722244029029</v>
+        <v>4.736159361957472</v>
       </c>
       <c r="G20" t="n">
-        <v>83.13283801949336</v>
+        <v>85.29716272260009</v>
       </c>
       <c r="H20" t="n">
-        <v>4.156641900974669</v>
+        <v>4.264858136130004</v>
       </c>
       <c r="I20" t="n">
-        <v>68.47728949585395</v>
+        <v>69.7006498059811</v>
       </c>
       <c r="J20" t="n">
-        <v>3.423864474792698</v>
+        <v>3.485032490299055</v>
       </c>
       <c r="K20" t="n">
-        <v>14.34412798888717</v>
+        <v>14.31724005922621</v>
       </c>
       <c r="L20" t="n">
-        <v>3.586031997221792</v>
+        <v>3.579310014806552</v>
       </c>
       <c r="M20" t="n">
-        <v>66.77884886130505</v>
+        <v>69.26757323975599</v>
       </c>
       <c r="N20" t="n">
-        <v>4.451923257420336</v>
+        <v>4.617838215983732</v>
       </c>
       <c r="O20" t="n">
-        <v>64.35802207921402</v>
+        <v>66.23533444692842</v>
       </c>
       <c r="P20" t="n">
-        <v>4.290534805280935</v>
+        <v>4.415688963128561</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.5637952920958</v>
+        <v>60.10745595900788</v>
       </c>
       <c r="R20" t="n">
-        <v>3.949149678117898</v>
+        <v>4.043635322055882</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
@@ -3341,28 +3341,28 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2</v>
       </c>
       <c r="AK20" t="n">
         <v>1</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
@@ -3377,16 +3377,16 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -3401,52 +3401,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>52.94206995409284</v>
+        <v>53.33411330110676</v>
       </c>
       <c r="D21" t="n">
-        <v>3.781576425292346</v>
+        <v>3.809579521507626</v>
       </c>
       <c r="E21" t="n">
-        <v>56.85838003456929</v>
+        <v>57.1903425973191</v>
       </c>
       <c r="F21" t="n">
-        <v>4.738198336214107</v>
+        <v>4.765861883109924</v>
       </c>
       <c r="G21" t="n">
-        <v>91.78631334423315</v>
+        <v>92.39392352826566</v>
       </c>
       <c r="H21" t="n">
-        <v>4.589315667211658</v>
+        <v>4.619696176413283</v>
       </c>
       <c r="I21" t="n">
-        <v>82.37041778038875</v>
+        <v>82.98692742789818</v>
       </c>
       <c r="J21" t="n">
-        <v>4.118520889019437</v>
+        <v>4.149346371394909</v>
       </c>
       <c r="K21" t="n">
-        <v>35.41037620959245</v>
+        <v>35.60676132086802</v>
       </c>
       <c r="L21" t="n">
-        <v>5.058625172798921</v>
+        <v>5.086680188695431</v>
       </c>
       <c r="M21" t="n">
-        <v>90.02723606746417</v>
+        <v>90.6252505610771</v>
       </c>
       <c r="N21" t="n">
-        <v>4.501361803373208</v>
+        <v>4.531262528053855</v>
       </c>
       <c r="O21" t="n">
-        <v>54.83598437956386</v>
+        <v>55.17530152125046</v>
       </c>
       <c r="P21" t="n">
-        <v>4.218152644581836</v>
+        <v>4.244253963173112</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.31868253855778</v>
+        <v>66.75894575111218</v>
       </c>
       <c r="R21" t="n">
-        <v>4.429392991213073</v>
+        <v>4.458097233192591</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3545,52 +3545,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>52.80223849385489</v>
+        <v>53.58710457962803</v>
       </c>
       <c r="D22" t="n">
-        <v>3.771588463846777</v>
+        <v>3.827650327116288</v>
       </c>
       <c r="E22" t="n">
-        <v>56.22193574179555</v>
+        <v>55.08273999110759</v>
       </c>
       <c r="F22" t="n">
-        <v>4.685161311816296</v>
+        <v>4.590228332592299</v>
       </c>
       <c r="G22" t="n">
-        <v>88.27196936698645</v>
+        <v>86.83015483897638</v>
       </c>
       <c r="H22" t="n">
-        <v>4.413598468349322</v>
+        <v>4.341507741948819</v>
       </c>
       <c r="I22" t="n">
-        <v>88.9825771152487</v>
+        <v>88.02199983415592</v>
       </c>
       <c r="J22" t="n">
-        <v>4.237265576916605</v>
+        <v>4.191523801626473</v>
       </c>
       <c r="K22" t="n">
-        <v>36.10278806923178</v>
+        <v>36.2322838202679</v>
       </c>
       <c r="L22" t="n">
-        <v>5.157541152747396</v>
+        <v>5.176040545752557</v>
       </c>
       <c r="M22" t="n">
-        <v>84.6527504911261</v>
+        <v>84.04483201607836</v>
       </c>
       <c r="N22" t="n">
-        <v>4.232637524556305</v>
+        <v>4.202241600803918</v>
       </c>
       <c r="O22" t="n">
-        <v>68.75225611169617</v>
+        <v>69.10912377578161</v>
       </c>
       <c r="P22" t="n">
-        <v>4.297016006981011</v>
+        <v>4.31932023598635</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.96950219856281</v>
+        <v>67.55831983657083</v>
       </c>
       <c r="R22" t="n">
-        <v>4.399258357887673</v>
+        <v>4.378358940832387</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AE22" t="n">
         <v>6</v>
@@ -3653,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
@@ -3689,64 +3689,64 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.54239632218599</v>
+        <v>67.94743809527024</v>
       </c>
       <c r="D23" t="n">
-        <v>4.436159754812399</v>
+        <v>4.52982920635135</v>
       </c>
       <c r="E23" t="n">
-        <v>71.02881540590916</v>
+        <v>73.02804436722323</v>
       </c>
       <c r="F23" t="n">
-        <v>5.073486814707796</v>
+        <v>5.216288883373088</v>
       </c>
       <c r="G23" t="n">
-        <v>100.8740445202353</v>
+        <v>104.8621123820598</v>
       </c>
       <c r="H23" t="n">
-        <v>4.803525929535014</v>
+        <v>4.993433922955229</v>
       </c>
       <c r="I23" t="n">
-        <v>103.7713106501106</v>
+        <v>106.5209992293797</v>
       </c>
       <c r="J23" t="n">
-        <v>4.511796115222203</v>
+        <v>4.631347792581727</v>
       </c>
       <c r="K23" t="n">
-        <v>23.32385050570616</v>
+        <v>23.02808910890109</v>
       </c>
       <c r="L23" t="n">
-        <v>4.664770101141232</v>
+        <v>4.605617821780217</v>
       </c>
       <c r="M23" t="n">
-        <v>84.12910867065077</v>
+        <v>88.80849943711212</v>
       </c>
       <c r="N23" t="n">
-        <v>4.673839370591709</v>
+        <v>4.933805524284006</v>
       </c>
       <c r="O23" t="n">
-        <v>77.11623657043177</v>
+        <v>77.73610991868019</v>
       </c>
       <c r="P23" t="n">
-        <v>4.536249210025399</v>
+        <v>4.572712348157658</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.25510894931854</v>
+        <v>77.41875607694664</v>
       </c>
       <c r="R23" t="n">
-        <v>4.671403899433679</v>
+        <v>4.783290785640468</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
         <v>7</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -3773,28 +3773,28 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK23" t="n">
         <v>2</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM23" t="n">
         <v>3</v>
@@ -3809,16 +3809,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -3833,52 +3833,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50.94355048218154</v>
+        <v>52.86386242992356</v>
       </c>
       <c r="D24" t="n">
-        <v>3.638825034441538</v>
+        <v>3.775990173565968</v>
       </c>
       <c r="E24" t="n">
-        <v>65.74725141479034</v>
+        <v>69.57131156538657</v>
       </c>
       <c r="F24" t="n">
-        <v>4.696232243913595</v>
+        <v>4.969379397527612</v>
       </c>
       <c r="G24" t="n">
-        <v>88.6401057841025</v>
+        <v>95.6644102290463</v>
       </c>
       <c r="H24" t="n">
-        <v>4.924450321339028</v>
+        <v>5.314689457169238</v>
       </c>
       <c r="I24" t="n">
-        <v>92.47394588465802</v>
+        <v>95.39003462758643</v>
       </c>
       <c r="J24" t="n">
-        <v>4.020606342811218</v>
+        <v>4.147392809895062</v>
       </c>
       <c r="K24" t="n">
-        <v>24.90301377722028</v>
+        <v>25.22541712166782</v>
       </c>
       <c r="L24" t="n">
-        <v>4.15050229620338</v>
+        <v>4.204236186944637</v>
       </c>
       <c r="M24" t="n">
-        <v>75.74713627338279</v>
+        <v>82.42345557217016</v>
       </c>
       <c r="N24" t="n">
-        <v>4.208174237410155</v>
+        <v>4.579080865120565</v>
       </c>
       <c r="O24" t="n">
-        <v>68.54804696299639</v>
+        <v>70.58421848268142</v>
       </c>
       <c r="P24" t="n">
-        <v>4.284252935187275</v>
+        <v>4.411513655167589</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.71472151133312</v>
+        <v>70.24610143263746</v>
       </c>
       <c r="R24" t="n">
-        <v>4.274720487329455</v>
+        <v>4.486040363627239</v>
       </c>
       <c r="S24" t="n">
         <v>6</v>
@@ -3917,28 +3917,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
@@ -3953,16 +3953,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
         <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -3977,64 +3977,64 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>57.56811617580358</v>
+        <v>60.06007404006761</v>
       </c>
       <c r="D25" t="n">
-        <v>4.112008298271685</v>
+        <v>4.290005288576258</v>
       </c>
       <c r="E25" t="n">
-        <v>67.23363538389671</v>
+        <v>70.8449953314404</v>
       </c>
       <c r="F25" t="n">
-        <v>4.802402527421194</v>
+        <v>5.0603568093886</v>
       </c>
       <c r="G25" t="n">
-        <v>82.55345842829487</v>
+        <v>85.96899923133654</v>
       </c>
       <c r="H25" t="n">
-        <v>4.344918864647099</v>
+        <v>4.524684170070345</v>
       </c>
       <c r="I25" t="n">
-        <v>92.43524546547482</v>
+        <v>99.41842665312032</v>
       </c>
       <c r="J25" t="n">
-        <v>4.201602066612493</v>
+        <v>4.519019393323651</v>
       </c>
       <c r="K25" t="n">
-        <v>26.41094188019859</v>
+        <v>26.39556969875968</v>
       </c>
       <c r="L25" t="n">
-        <v>4.401823646699765</v>
+        <v>4.399261616459946</v>
       </c>
       <c r="M25" t="n">
-        <v>75.38910599648806</v>
+        <v>79.93273424748078</v>
       </c>
       <c r="N25" t="n">
-        <v>4.434653293911062</v>
+        <v>4.701925543969457</v>
       </c>
       <c r="O25" t="n">
-        <v>64.69700337979759</v>
+        <v>66.56591057550774</v>
       </c>
       <c r="P25" t="n">
-        <v>4.043562711237349</v>
+        <v>4.160369410969234</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.61250095856489</v>
+        <v>69.88381568253044</v>
       </c>
       <c r="R25" t="n">
-        <v>4.334424486971521</v>
+        <v>4.522231747536784</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -4049,16 +4049,16 @@
         <v>0.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -4073,16 +4073,16 @@
         <v>0.15</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
         <v>3</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
@@ -4097,16 +4097,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS25" t="n">
         <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="26">
@@ -4121,64 +4121,64 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37.85497988567298</v>
+        <v>36.42936522533716</v>
       </c>
       <c r="D26" t="n">
-        <v>3.441361807788453</v>
+        <v>3.311760475030651</v>
       </c>
       <c r="E26" t="n">
-        <v>50.29226428451399</v>
+        <v>51.11463894271199</v>
       </c>
       <c r="F26" t="n">
-        <v>3.868635714193384</v>
+        <v>3.931895303285538</v>
       </c>
       <c r="G26" t="n">
-        <v>86.29968404506005</v>
+        <v>87.8794177702258</v>
       </c>
       <c r="H26" t="n">
-        <v>4.314984202253002</v>
+        <v>4.393970888511291</v>
       </c>
       <c r="I26" t="n">
-        <v>75.40664565198568</v>
+        <v>74.12855758516396</v>
       </c>
       <c r="J26" t="n">
-        <v>3.590792650094556</v>
+        <v>3.529931313579236</v>
       </c>
       <c r="K26" t="n">
-        <v>37.24950210572266</v>
+        <v>35.36606667343696</v>
       </c>
       <c r="L26" t="n">
-        <v>4.138833567302517</v>
+        <v>3.929562963715219</v>
       </c>
       <c r="M26" t="n">
-        <v>55.69535968628976</v>
+        <v>55.92427435068398</v>
       </c>
       <c r="N26" t="n">
-        <v>4.284258437406905</v>
+        <v>4.301867257744922</v>
       </c>
       <c r="O26" t="n">
-        <v>48.42050388251467</v>
+        <v>47.76590956419808</v>
       </c>
       <c r="P26" t="n">
-        <v>4.035041990209557</v>
+        <v>3.980492463683174</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.88841993453711</v>
+        <v>55.51546144453685</v>
       </c>
       <c r="R26" t="n">
-        <v>3.953415481321196</v>
+        <v>3.911354380792861</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W26" t="n">
         <v>3</v>
@@ -4205,28 +4205,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>6</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -4241,16 +4241,16 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="27">
@@ -4265,64 +4265,64 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>45.61723606201858</v>
+        <v>45.98013418510394</v>
       </c>
       <c r="D27" t="n">
-        <v>3.509018158616815</v>
+        <v>3.53693339885415</v>
       </c>
       <c r="E27" t="n">
-        <v>47.58428736623357</v>
+        <v>49.1988490432382</v>
       </c>
       <c r="F27" t="n">
-        <v>4.325844306021233</v>
+        <v>4.472622640294382</v>
       </c>
       <c r="G27" t="n">
-        <v>91.25899821355806</v>
+        <v>93.47019577203075</v>
       </c>
       <c r="H27" t="n">
-        <v>4.345666581598002</v>
+        <v>4.450961703430035</v>
       </c>
       <c r="I27" t="n">
-        <v>81.29411457921432</v>
+        <v>83.0168651711715</v>
       </c>
       <c r="J27" t="n">
-        <v>3.87114831329592</v>
+        <v>3.953184055770073</v>
       </c>
       <c r="K27" t="n">
-        <v>20.44963376810602</v>
+        <v>20.65087164865791</v>
       </c>
       <c r="L27" t="n">
-        <v>4.089926753621203</v>
+        <v>4.130174329731582</v>
       </c>
       <c r="M27" t="n">
-        <v>48.17154228018185</v>
+        <v>49.26001062391309</v>
       </c>
       <c r="N27" t="n">
-        <v>4.379231116380168</v>
+        <v>4.478182783992098</v>
       </c>
       <c r="O27" t="n">
-        <v>68.40938749667701</v>
+        <v>69.32783800419139</v>
       </c>
       <c r="P27" t="n">
-        <v>4.560625833111801</v>
+        <v>4.621855866946094</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.54074282371278</v>
+        <v>58.70068063547239</v>
       </c>
       <c r="R27" t="n">
-        <v>4.154494437520735</v>
+        <v>4.234844968431202</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W27" t="n">
         <v>3</v>
@@ -4349,28 +4349,28 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>1</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>2</v>
-      </c>
       <c r="AK27" t="n">
         <v>2</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM27" t="n">
         <v>3</v>
@@ -4385,16 +4385,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -4409,64 +4409,64 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>44.41209006636106</v>
+        <v>44.42444509941117</v>
       </c>
       <c r="D28" t="n">
-        <v>3.172292147597219</v>
+        <v>3.173174649957941</v>
       </c>
       <c r="E28" t="n">
-        <v>65.92920934903547</v>
+        <v>66.99049960497442</v>
       </c>
       <c r="F28" t="n">
-        <v>4.395280623269032</v>
+        <v>4.466033306998294</v>
       </c>
       <c r="G28" t="n">
-        <v>88.95843476166735</v>
+        <v>90.25990943951803</v>
       </c>
       <c r="H28" t="n">
-        <v>4.447921738083368</v>
+        <v>4.512995471975902</v>
       </c>
       <c r="I28" t="n">
-        <v>72.63447827360625</v>
+        <v>72.99926963169671</v>
       </c>
       <c r="J28" t="n">
-        <v>3.631723913680313</v>
+        <v>3.649963481584835</v>
       </c>
       <c r="K28" t="n">
-        <v>13.98587458992034</v>
+        <v>13.73305987171285</v>
       </c>
       <c r="L28" t="n">
-        <v>3.496468647480086</v>
+        <v>3.433264967928213</v>
       </c>
       <c r="M28" t="n">
-        <v>65.86372068950573</v>
+        <v>67.88690755510888</v>
       </c>
       <c r="N28" t="n">
-        <v>4.390914712633715</v>
+        <v>4.525793837007258</v>
       </c>
       <c r="O28" t="n">
-        <v>64.1698487926795</v>
+        <v>64.94954970453533</v>
       </c>
       <c r="P28" t="n">
-        <v>4.277989919511966</v>
+        <v>4.329969980302355</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.4219509318251</v>
+        <v>60.1776629867082</v>
       </c>
       <c r="R28" t="n">
-        <v>3.973227386036528</v>
+        <v>4.0130279565364</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
@@ -4493,28 +4493,28 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>2</v>
       </c>
       <c r="AK28" t="n">
         <v>1</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM28" t="n">
         <v>2</v>
@@ -4529,16 +4529,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -4697,52 +4697,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>32.07081089611893</v>
+        <v>32.20321254058346</v>
       </c>
       <c r="D30" t="n">
-        <v>2.915528263283539</v>
+        <v>2.927564776416679</v>
       </c>
       <c r="E30" t="n">
-        <v>52.46555413892549</v>
+        <v>52.74149111289104</v>
       </c>
       <c r="F30" t="n">
-        <v>4.769595830811408</v>
+        <v>4.794681010262822</v>
       </c>
       <c r="G30" t="n">
-        <v>97.43324535144215</v>
+        <v>97.87630895036924</v>
       </c>
       <c r="H30" t="n">
-        <v>4.428783879611006</v>
+        <v>4.448923134107693</v>
       </c>
       <c r="I30" t="n">
-        <v>79.89892104092303</v>
+        <v>80.3456615893891</v>
       </c>
       <c r="J30" t="n">
-        <v>3.994946052046152</v>
+        <v>4.017283079469454</v>
       </c>
       <c r="K30" t="n">
-        <v>32.41047115282354</v>
+        <v>32.35472764142703</v>
       </c>
       <c r="L30" t="n">
-        <v>5.401745192137257</v>
+        <v>5.392454606904505</v>
       </c>
       <c r="M30" t="n">
-        <v>64.13883672195573</v>
+        <v>64.20603848873404</v>
       </c>
       <c r="N30" t="n">
-        <v>4.275922448130382</v>
+        <v>4.280402565915603</v>
       </c>
       <c r="O30" t="n">
-        <v>39.89095536540072</v>
+        <v>39.49119413458795</v>
       </c>
       <c r="P30" t="n">
-        <v>3.626450487763702</v>
+        <v>3.590108557689814</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.90125638108422</v>
+        <v>57.03123349399741</v>
       </c>
       <c r="R30" t="n">
-        <v>4.201853164826207</v>
+        <v>4.20734539010951</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -4841,64 +4841,64 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>48.0139270733703</v>
+        <v>47.10200627437173</v>
       </c>
       <c r="D31" t="n">
-        <v>4.001160589447524</v>
+        <v>3.925167189530978</v>
       </c>
       <c r="E31" t="n">
-        <v>43.67186093431103</v>
+        <v>43.45349907971561</v>
       </c>
       <c r="F31" t="n">
-        <v>3.970169175846457</v>
+        <v>3.950318098155964</v>
       </c>
       <c r="G31" t="n">
-        <v>112.5470569352588</v>
+        <v>114.3952799413142</v>
       </c>
       <c r="H31" t="n">
-        <v>4.689460705635785</v>
+        <v>4.766469997554758</v>
       </c>
       <c r="I31" t="n">
-        <v>114.459052372833</v>
+        <v>114.3712923195802</v>
       </c>
       <c r="J31" t="n">
-        <v>4.578362094913319</v>
+        <v>4.574851692783207</v>
       </c>
       <c r="K31" t="n">
-        <v>18.42225922526744</v>
+        <v>16.75460147637525</v>
       </c>
       <c r="L31" t="n">
-        <v>4.605564806316861</v>
+        <v>4.188650369093811</v>
       </c>
       <c r="M31" t="n">
-        <v>63.99007917033808</v>
+        <v>65.29934452320234</v>
       </c>
       <c r="N31" t="n">
-        <v>4.570719940738435</v>
+        <v>4.664238894514453</v>
       </c>
       <c r="O31" t="n">
-        <v>42.70942822386387</v>
+        <v>41.83616469439139</v>
       </c>
       <c r="P31" t="n">
-        <v>3.559119018655323</v>
+        <v>3.48634705786595</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.40195199074893</v>
+        <v>63.31602690127867</v>
       </c>
       <c r="R31" t="n">
-        <v>4.282079475936244</v>
+        <v>4.222291899928446</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W31" t="n">
         <v>3</v>
@@ -4925,28 +4925,28 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK31" t="n">
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM31" t="n">
         <v>2</v>
@@ -4961,16 +4961,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS31" t="n">
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -4985,64 +4985,64 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>62.7821532508398</v>
+        <v>61.41272239669789</v>
       </c>
       <c r="D32" t="n">
-        <v>4.185476883389319</v>
+        <v>4.094181493113193</v>
       </c>
       <c r="E32" t="n">
-        <v>45.89618739198817</v>
+        <v>46.36504456492018</v>
       </c>
       <c r="F32" t="n">
-        <v>4.589618739198817</v>
+        <v>4.636504456492018</v>
       </c>
       <c r="G32" t="n">
-        <v>97.04054665247808</v>
+        <v>96.83999325612209</v>
       </c>
       <c r="H32" t="n">
-        <v>4.620978412022765</v>
+        <v>4.611428250291528</v>
       </c>
       <c r="I32" t="n">
-        <v>108.111230840754</v>
+        <v>105.8351906138464</v>
       </c>
       <c r="J32" t="n">
-        <v>4.504634618364751</v>
+        <v>4.409799608910267</v>
       </c>
       <c r="K32" t="n">
-        <v>22.90588251530489</v>
+        <v>20.8571486100616</v>
       </c>
       <c r="L32" t="n">
-        <v>4.581176503060979</v>
+        <v>4.17142972201232</v>
       </c>
       <c r="M32" t="n">
-        <v>56.73557221879046</v>
+        <v>57.39492774063456</v>
       </c>
       <c r="N32" t="n">
-        <v>4.364274786060804</v>
+        <v>4.414994441587275</v>
       </c>
       <c r="O32" t="n">
-        <v>54.42551660575779</v>
+        <v>52.43697635891367</v>
       </c>
       <c r="P32" t="n">
-        <v>3.887536900411272</v>
+        <v>3.745498311350976</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.98529849655903</v>
+        <v>63.02028622017092</v>
       </c>
       <c r="R32" t="n">
-        <v>4.390528120358387</v>
+        <v>4.297690897679654</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>6</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
@@ -5069,28 +5069,28 @@
         <v>0.125</v>
       </c>
       <c r="AE32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
         <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK32" t="n">
         <v>2</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM32" t="n">
         <v>3</v>
@@ -5105,16 +5105,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS32" t="n">
         <v>6</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -5129,64 +5129,64 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40.94076217188086</v>
+        <v>40.10140207219545</v>
       </c>
       <c r="D33" t="n">
-        <v>3.721887470170987</v>
+        <v>3.645582006563223</v>
       </c>
       <c r="E33" t="n">
-        <v>47.08874337498381</v>
+        <v>47.1795430631572</v>
       </c>
       <c r="F33" t="n">
-        <v>4.280794852271256</v>
+        <v>4.289049369377928</v>
       </c>
       <c r="G33" t="n">
-        <v>109.9617702246335</v>
+        <v>110.8244820213065</v>
       </c>
       <c r="H33" t="n">
-        <v>4.581740426026396</v>
+        <v>4.61768675088777</v>
       </c>
       <c r="I33" t="n">
-        <v>105.5641520206809</v>
+        <v>106.7352064300798</v>
       </c>
       <c r="J33" t="n">
-        <v>4.589745740029605</v>
+        <v>4.640661149133905</v>
       </c>
       <c r="K33" t="n">
-        <v>21.75292874654685</v>
+        <v>20.16977340681542</v>
       </c>
       <c r="L33" t="n">
-        <v>4.350585749309371</v>
+        <v>4.033954681363084</v>
       </c>
       <c r="M33" t="n">
-        <v>53.05770371998743</v>
+        <v>55.06928671626608</v>
       </c>
       <c r="N33" t="n">
-        <v>4.421475309998952</v>
+        <v>4.589107226355506</v>
       </c>
       <c r="O33" t="n">
-        <v>55.77348726183008</v>
+        <v>55.15568190590001</v>
       </c>
       <c r="P33" t="n">
-        <v>3.983820518702148</v>
+        <v>3.939691564707144</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.01993536007763</v>
+        <v>62.1764822308172</v>
       </c>
       <c r="R33" t="n">
-        <v>4.275721438072674</v>
+        <v>4.250818964055508</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -5213,28 +5213,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
         <v>8</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK33" t="n">
         <v>2</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM33" t="n">
         <v>3</v>
@@ -5249,16 +5249,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS33" t="n">
         <v>5</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="34">
@@ -5273,64 +5273,64 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.64028991091408</v>
+        <v>41.42239422620096</v>
       </c>
       <c r="D34" t="n">
-        <v>3.87638999190128</v>
+        <v>3.765672202381906</v>
       </c>
       <c r="E34" t="n">
-        <v>43.61780511439415</v>
+        <v>38.21965212613289</v>
       </c>
       <c r="F34" t="n">
-        <v>3.965255010399468</v>
+        <v>3.474513829648445</v>
       </c>
       <c r="G34" t="n">
-        <v>95.41714344488095</v>
+        <v>93.10661291735462</v>
       </c>
       <c r="H34" t="n">
-        <v>4.543673497375284</v>
+        <v>4.433648234159744</v>
       </c>
       <c r="I34" t="n">
-        <v>77.79417337406694</v>
+        <v>73.85026482078416</v>
       </c>
       <c r="J34" t="n">
-        <v>3.889708668703347</v>
+        <v>3.692513241039208</v>
       </c>
       <c r="K34" t="n">
-        <v>52.02545472059557</v>
+        <v>46.52519811142407</v>
       </c>
       <c r="L34" t="n">
-        <v>4.729586792781416</v>
+        <v>4.229563464674917</v>
       </c>
       <c r="M34" t="n">
-        <v>83.0194442616327</v>
+        <v>81.13329368606209</v>
       </c>
       <c r="N34" t="n">
-        <v>4.883496721272513</v>
+        <v>4.772546687415418</v>
       </c>
       <c r="O34" t="n">
-        <v>43.92850890121215</v>
+        <v>39.43178442874725</v>
       </c>
       <c r="P34" t="n">
-        <v>3.993500809201104</v>
+        <v>3.58470767534066</v>
       </c>
       <c r="Q34" t="n">
-        <v>62.63468853252807</v>
+        <v>59.09845718810087</v>
       </c>
       <c r="R34" t="n">
-        <v>4.268801641662058</v>
+        <v>3.9933093335229</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W34" t="n">
         <v>2</v>
@@ -5357,28 +5357,28 @@
         <v>0.1875</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
         <v>2</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK34" t="n">
         <v>7</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM34" t="n">
         <v>2</v>
@@ -5393,16 +5393,16 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
         <v>5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="35">
@@ -5849,52 +5849,52 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>20.14627749537634</v>
+        <v>19.82098961959165</v>
       </c>
       <c r="D38" t="n">
-        <v>1.83147977230694</v>
+        <v>1.801908147235605</v>
       </c>
       <c r="E38" t="n">
-        <v>16.75970146690647</v>
+        <v>16.56310420691141</v>
       </c>
       <c r="F38" t="n">
-        <v>2.394243066700925</v>
+        <v>2.366157743844487</v>
       </c>
       <c r="G38" t="n">
-        <v>65.41836766281878</v>
+        <v>65.13022644959638</v>
       </c>
       <c r="H38" t="n">
-        <v>3.270918383140939</v>
+        <v>3.256511322479819</v>
       </c>
       <c r="I38" t="n">
-        <v>46.7710912548117</v>
+        <v>46.32745237327353</v>
       </c>
       <c r="J38" t="n">
-        <v>2.338554562740585</v>
+        <v>2.316372618663677</v>
       </c>
       <c r="K38" t="n">
-        <v>18.18717799668551</v>
+        <v>18.02280794360713</v>
       </c>
       <c r="L38" t="n">
-        <v>3.031196332780919</v>
+        <v>3.003801323934522</v>
       </c>
       <c r="M38" t="n">
-        <v>54.57442734972447</v>
+        <v>54.86411415653699</v>
       </c>
       <c r="N38" t="n">
-        <v>3.41090170935778</v>
+        <v>3.429007134783562</v>
       </c>
       <c r="O38" t="n">
-        <v>30.30115612233367</v>
+        <v>30.01282453178987</v>
       </c>
       <c r="P38" t="n">
-        <v>2.754650556575788</v>
+        <v>2.728438593799079</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.02259990695099</v>
+        <v>35.82021704018671</v>
       </c>
       <c r="R38" t="n">
-        <v>2.718849197657697</v>
+        <v>2.70031384067725</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5993,64 +5993,64 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>41.03728941928647</v>
+        <v>37.25993906734434</v>
       </c>
       <c r="D39" t="n">
-        <v>3.730662674480588</v>
+        <v>3.387267187940394</v>
       </c>
       <c r="E39" t="n">
-        <v>50.8839970545154</v>
+        <v>49.68183323926839</v>
       </c>
       <c r="F39" t="n">
-        <v>4.625817914046855</v>
+        <v>4.516530294478945</v>
       </c>
       <c r="G39" t="n">
-        <v>97.17992947541505</v>
+        <v>95.94402244999857</v>
       </c>
       <c r="H39" t="n">
-        <v>4.417269521609775</v>
+        <v>4.36109192954539</v>
       </c>
       <c r="I39" t="n">
-        <v>113.2143873307723</v>
+        <v>107.7536400600632</v>
       </c>
       <c r="J39" t="n">
-        <v>4.528575493230892</v>
+        <v>4.310145602402531</v>
       </c>
       <c r="K39" t="n">
-        <v>31.51579122931591</v>
+        <v>29.24516456187031</v>
       </c>
       <c r="L39" t="n">
-        <v>4.502255889902273</v>
+        <v>4.177880651695759</v>
       </c>
       <c r="M39" t="n">
-        <v>84.00882957145689</v>
+        <v>81.1775719873677</v>
       </c>
       <c r="N39" t="n">
-        <v>4.667157198414272</v>
+        <v>4.509865110409317</v>
       </c>
       <c r="O39" t="n">
-        <v>45.03047159313526</v>
+        <v>40.4803325968739</v>
       </c>
       <c r="P39" t="n">
-        <v>3.752539299427938</v>
+        <v>3.373361049739492</v>
       </c>
       <c r="Q39" t="n">
-        <v>66.12438509627104</v>
+        <v>63.07750056611235</v>
       </c>
       <c r="R39" t="n">
-        <v>4.31775399873037</v>
+        <v>4.090877403744547</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -6077,28 +6077,28 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="AE39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>1</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>2</v>
-      </c>
       <c r="AK39" t="n">
         <v>4</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM39" t="n">
         <v>2</v>
@@ -6113,16 +6113,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS39" t="n">
         <v>4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -6137,64 +6137,64 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>61.71676796019675</v>
+        <v>56.80776212848855</v>
       </c>
       <c r="D40" t="n">
-        <v>4.408340568585483</v>
+        <v>4.057697294892039</v>
       </c>
       <c r="E40" t="n">
-        <v>49.68905945784599</v>
+        <v>46.77745752894015</v>
       </c>
       <c r="F40" t="n">
-        <v>4.968905945784599</v>
+        <v>4.677745752894015</v>
       </c>
       <c r="G40" t="n">
-        <v>114.7938352738966</v>
+        <v>109.8489742201034</v>
       </c>
       <c r="H40" t="n">
-        <v>5.217901603358938</v>
+        <v>4.993135191822879</v>
       </c>
       <c r="I40" t="n">
-        <v>94.98096814296404</v>
+        <v>86.27563826201455</v>
       </c>
       <c r="J40" t="n">
-        <v>4.129607310563654</v>
+        <v>3.75111470704411</v>
       </c>
       <c r="K40" t="n">
-        <v>39.05362056030587</v>
+        <v>33.24389280066956</v>
       </c>
       <c r="L40" t="n">
-        <v>4.881702570038232</v>
+        <v>4.155486600083695</v>
       </c>
       <c r="M40" t="n">
-        <v>78.52537862127693</v>
+        <v>76.36479197076108</v>
       </c>
       <c r="N40" t="n">
-        <v>4.619139918898642</v>
+        <v>4.492046586515357</v>
       </c>
       <c r="O40" t="n">
-        <v>59.45850057215026</v>
+        <v>56.85138259388366</v>
       </c>
       <c r="P40" t="n">
-        <v>4.24703575515359</v>
+        <v>4.060813042420262</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.17401865551949</v>
+        <v>66.59569992926585</v>
       </c>
       <c r="R40" t="n">
-        <v>4.638947667483306</v>
+        <v>4.312577025096051</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -6221,40 +6221,40 @@
         <v>0.0625</v>
       </c>
       <c r="AE40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG40" t="n">
         <v>6</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK40" t="n">
         <v>5</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO40" t="n">
         <v>8</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>3</v>
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35.74218549039989</v>
+        <v>33.79469620714037</v>
       </c>
       <c r="D41" t="n">
-        <v>3.574218549039988</v>
+        <v>3.379469620714037</v>
       </c>
       <c r="E41" t="n">
-        <v>57.13755315385682</v>
+        <v>53.16893219844056</v>
       </c>
       <c r="F41" t="n">
-        <v>4.761462762821402</v>
+        <v>4.430744349870046</v>
       </c>
       <c r="G41" t="n">
-        <v>85.5584416936538</v>
+        <v>84.37014871364428</v>
       </c>
       <c r="H41" t="n">
-        <v>3.889020076984264</v>
+        <v>3.835006759711103</v>
       </c>
       <c r="I41" t="n">
-        <v>96.20562218327011</v>
+        <v>93.09819853380652</v>
       </c>
       <c r="J41" t="n">
-        <v>4.182853138403048</v>
+        <v>4.047747762339415</v>
       </c>
       <c r="K41" t="n">
-        <v>29.20284005208454</v>
+        <v>27.79070858294622</v>
       </c>
       <c r="L41" t="n">
-        <v>4.171834293154935</v>
+        <v>3.970101226135174</v>
       </c>
       <c r="M41" t="n">
-        <v>80.62589568094627</v>
+        <v>81.03951289766754</v>
       </c>
       <c r="N41" t="n">
-        <v>4.742699745938015</v>
+        <v>4.767030170451031</v>
       </c>
       <c r="O41" t="n">
-        <v>44.67571329683899</v>
+        <v>42.90389523954683</v>
       </c>
       <c r="P41" t="n">
-        <v>3.191122378345641</v>
+        <v>3.064563945681916</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.30689307872149</v>
+        <v>59.45229891045604</v>
       </c>
       <c r="R41" t="n">
-        <v>4.073315849241042</v>
+        <v>3.927809119271818</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -6365,28 +6365,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AE41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>7</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK41" t="n">
         <v>3</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM41" t="n">
         <v>2</v>
@@ -6401,16 +6401,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS41" t="n">
         <v>7</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="42">
@@ -6425,100 +6425,100 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.50746740232243</v>
+        <v>39.65251495717992</v>
       </c>
       <c r="D42" t="n">
-        <v>3.682497036574766</v>
+        <v>3.604774087016356</v>
       </c>
       <c r="E42" t="n">
-        <v>40.18265875888651</v>
+        <v>37.4957153215779</v>
       </c>
       <c r="F42" t="n">
-        <v>3.652968978080592</v>
+        <v>3.408701392870718</v>
       </c>
       <c r="G42" t="n">
-        <v>93.43544797072281</v>
+        <v>93.06918518048236</v>
       </c>
       <c r="H42" t="n">
-        <v>4.449307046224895</v>
+        <v>4.431865960975352</v>
       </c>
       <c r="I42" t="n">
-        <v>77.75167855300076</v>
+        <v>71.51552323082637</v>
       </c>
       <c r="J42" t="n">
-        <v>3.702460883476226</v>
+        <v>3.405501106229828</v>
       </c>
       <c r="K42" t="n">
-        <v>48.08793314846817</v>
+        <v>46.0847752038659</v>
       </c>
       <c r="L42" t="n">
-        <v>4.371630286224379</v>
+        <v>4.189525018533264</v>
       </c>
       <c r="M42" t="n">
-        <v>72.25869407021675</v>
+        <v>67.220145285756</v>
       </c>
       <c r="N42" t="n">
-        <v>4.250511415895104</v>
+        <v>3.954126193279765</v>
       </c>
       <c r="O42" t="n">
-        <v>54.23405312629988</v>
+        <v>55.28063444561529</v>
       </c>
       <c r="P42" t="n">
-        <v>4.171850240484607</v>
+        <v>4.252356495816561</v>
       </c>
       <c r="Q42" t="n">
-        <v>60.92256186141675</v>
+        <v>58.61692766075768</v>
       </c>
       <c r="R42" t="n">
-        <v>4.040175126708653</v>
+        <v>3.892407179245978</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="n">
         <v>4</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AA42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="AE42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG42" t="n">
         <v>5</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="AI42" t="n">
         <v>1</v>
@@ -6533,16 +6533,16 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="AM42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO42" t="n">
         <v>9</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -6569,64 +6569,64 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>56.17556556473495</v>
+        <v>56.18657188106958</v>
       </c>
       <c r="D43" t="n">
-        <v>4.321197351133458</v>
+        <v>4.322043990851506</v>
       </c>
       <c r="E43" t="n">
-        <v>45.61478828312323</v>
+        <v>44.69464352201214</v>
       </c>
       <c r="F43" t="n">
-        <v>4.561478828312323</v>
+        <v>4.469464352201214</v>
       </c>
       <c r="G43" t="n">
-        <v>108.1518640008889</v>
+        <v>99.10385733952556</v>
       </c>
       <c r="H43" t="n">
-        <v>4.702254956560386</v>
+        <v>4.308863362588068</v>
       </c>
       <c r="I43" t="n">
-        <v>94.40821954865159</v>
+        <v>93.81087056616468</v>
       </c>
       <c r="J43" t="n">
-        <v>4.495629502316742</v>
+        <v>4.467184312674508</v>
       </c>
       <c r="K43" t="n">
-        <v>37.05491502869445</v>
+        <v>37.32197797824116</v>
       </c>
       <c r="L43" t="n">
-        <v>5.293559289813492</v>
+        <v>5.331711139748738</v>
       </c>
       <c r="M43" t="n">
-        <v>76.68471505143978</v>
+        <v>74.98765602802999</v>
       </c>
       <c r="N43" t="n">
-        <v>4.792794690714985</v>
+        <v>4.686728501751874</v>
       </c>
       <c r="O43" t="n">
-        <v>73.59685997390088</v>
+        <v>72.75283576104384</v>
       </c>
       <c r="P43" t="n">
-        <v>4.599803748368805</v>
+        <v>4.547052235065239</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.24098963591911</v>
+        <v>68.40834472515527</v>
       </c>
       <c r="R43" t="n">
-        <v>4.680959766745741</v>
+        <v>4.59043541355445</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
@@ -6641,16 +6641,16 @@
         <v>0.125</v>
       </c>
       <c r="AA43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC43" t="n">
         <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AE43" t="n">
         <v>6</v>
@@ -6713,52 +6713,52 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>51.20001020679031</v>
+        <v>52.33724323368826</v>
       </c>
       <c r="D44" t="n">
-        <v>3.657143586199308</v>
+        <v>3.738374516692018</v>
       </c>
       <c r="E44" t="n">
-        <v>52.69713787663191</v>
+        <v>51.91291160904251</v>
       </c>
       <c r="F44" t="n">
-        <v>4.391428156385992</v>
+        <v>4.326075967420209</v>
       </c>
       <c r="G44" t="n">
-        <v>90.14253772796087</v>
+        <v>89.25057268454994</v>
       </c>
       <c r="H44" t="n">
-        <v>4.507126886398043</v>
+        <v>4.462528634227497</v>
       </c>
       <c r="I44" t="n">
-        <v>90.9404455378405</v>
+        <v>90.18988843996328</v>
       </c>
       <c r="J44" t="n">
-        <v>4.330497406563834</v>
+        <v>4.294756592379206</v>
       </c>
       <c r="K44" t="n">
-        <v>37.03644364601708</v>
+        <v>37.31961127540425</v>
       </c>
       <c r="L44" t="n">
-        <v>5.290920520859581</v>
+        <v>5.331373039343465</v>
       </c>
       <c r="M44" t="n">
-        <v>85.73334379583959</v>
+        <v>85.32936157339337</v>
       </c>
       <c r="N44" t="n">
-        <v>4.28666718979198</v>
+        <v>4.26646807866967</v>
       </c>
       <c r="O44" t="n">
-        <v>65.97192138881469</v>
+        <v>66.81269755362339</v>
       </c>
       <c r="P44" t="n">
-        <v>4.123245086800917</v>
+        <v>4.175793597101461</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.67454859712785</v>
+        <v>67.593183767095</v>
       </c>
       <c r="R44" t="n">
-        <v>4.36957554757138</v>
+        <v>4.370767203690503</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6785,16 +6785,16 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC44" t="n">
         <v>12</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AE44" t="n">
         <v>6</v>
@@ -6821,16 +6821,16 @@
         <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO44" t="n">
         <v>12</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ44" t="n">
         <v>3</v>
@@ -6857,52 +6857,52 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>29.2798023013675</v>
+        <v>29.57050953268918</v>
       </c>
       <c r="D45" t="n">
-        <v>2.661800209215228</v>
+        <v>2.68822813933538</v>
       </c>
       <c r="E45" t="n">
-        <v>46.78978763276029</v>
+        <v>47.25039722751042</v>
       </c>
       <c r="F45" t="n">
-        <v>4.253617057523662</v>
+        <v>4.295490657046402</v>
       </c>
       <c r="G45" t="n">
-        <v>86.60895320283551</v>
+        <v>87.22094996488974</v>
       </c>
       <c r="H45" t="n">
-        <v>3.936770600128887</v>
+        <v>3.964588634767715</v>
       </c>
       <c r="I45" t="n">
-        <v>74.41384463621965</v>
+        <v>75.11546052570516</v>
       </c>
       <c r="J45" t="n">
-        <v>3.720692231810983</v>
+        <v>3.755773026285259</v>
       </c>
       <c r="K45" t="n">
-        <v>30.65010952667594</v>
+        <v>30.63343790772944</v>
       </c>
       <c r="L45" t="n">
-        <v>5.108351587779324</v>
+        <v>5.105572984621573</v>
       </c>
       <c r="M45" t="n">
-        <v>60.23935019819666</v>
+        <v>60.51290310638296</v>
       </c>
       <c r="N45" t="n">
-        <v>4.015956679879777</v>
+        <v>4.034193540425532</v>
       </c>
       <c r="O45" t="n">
-        <v>35.59084934954576</v>
+        <v>35.41754497994641</v>
       </c>
       <c r="P45" t="n">
-        <v>3.235531759049615</v>
+        <v>3.219776816358765</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.93895669251447</v>
+        <v>52.24588617783618</v>
       </c>
       <c r="R45" t="n">
-        <v>3.847531446483925</v>
+        <v>3.866231971262946</v>
       </c>
       <c r="S45" t="n">
         <v>7</v>
@@ -7001,52 +7001,52 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18.68647811849937</v>
+        <v>18.79248753209282</v>
       </c>
       <c r="D46" t="n">
-        <v>1.698770738045397</v>
+        <v>1.708407957462984</v>
       </c>
       <c r="E46" t="n">
-        <v>16.49518537553319</v>
+        <v>16.51530567590848</v>
       </c>
       <c r="F46" t="n">
-        <v>2.356455053647598</v>
+        <v>2.35932938227264</v>
       </c>
       <c r="G46" t="n">
-        <v>64.91345445786123</v>
+        <v>65.84116709479812</v>
       </c>
       <c r="H46" t="n">
-        <v>3.245672722893062</v>
+        <v>3.292058354739907</v>
       </c>
       <c r="I46" t="n">
-        <v>45.20328222410645</v>
+        <v>45.8037739458819</v>
       </c>
       <c r="J46" t="n">
-        <v>2.260164111205323</v>
+        <v>2.290188697294095</v>
       </c>
       <c r="K46" t="n">
-        <v>18.16378349549002</v>
+        <v>18.36826210867984</v>
       </c>
       <c r="L46" t="n">
-        <v>3.027297249248336</v>
+        <v>3.061377018113307</v>
       </c>
       <c r="M46" t="n">
-        <v>52.26244536635882</v>
+        <v>53.48085967401633</v>
       </c>
       <c r="N46" t="n">
-        <v>3.266402835397426</v>
+        <v>3.34255372962602</v>
       </c>
       <c r="O46" t="n">
-        <v>29.99502749404262</v>
+        <v>30.37886793763393</v>
       </c>
       <c r="P46" t="n">
-        <v>2.726820681276602</v>
+        <v>2.76171526705763</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.10280807598453</v>
+        <v>35.59724628128735</v>
       </c>
       <c r="R46" t="n">
-        <v>2.654511913101964</v>
+        <v>2.687947200938083</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -7145,52 +7145,52 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>44.87283935042529</v>
+        <v>45.54400124184455</v>
       </c>
       <c r="D47" t="n">
-        <v>3.739403279202107</v>
+        <v>3.795333436820379</v>
       </c>
       <c r="E47" t="n">
-        <v>49.1785576125454</v>
+        <v>43.73424859167307</v>
       </c>
       <c r="F47" t="n">
-        <v>4.470777964776854</v>
+        <v>3.975840781061188</v>
       </c>
       <c r="G47" t="n">
-        <v>94.75001304072288</v>
+        <v>93.2723021960626</v>
       </c>
       <c r="H47" t="n">
-        <v>4.306818774578312</v>
+        <v>4.239650099821027</v>
       </c>
       <c r="I47" t="n">
-        <v>116.7776758365057</v>
+        <v>106.741505078548</v>
       </c>
       <c r="J47" t="n">
-        <v>4.671107033460229</v>
+        <v>4.269660203141919</v>
       </c>
       <c r="K47" t="n">
-        <v>33.5454148160357</v>
+        <v>30.86329806050342</v>
       </c>
       <c r="L47" t="n">
-        <v>4.792202116576529</v>
+        <v>4.409042580071918</v>
       </c>
       <c r="M47" t="n">
-        <v>78.58503954371251</v>
+        <v>75.57556745393941</v>
       </c>
       <c r="N47" t="n">
-        <v>4.365835530206251</v>
+        <v>4.198642636329968</v>
       </c>
       <c r="O47" t="n">
-        <v>51.95494393238613</v>
+        <v>45.73029326963649</v>
       </c>
       <c r="P47" t="n">
-        <v>3.996534148645086</v>
+        <v>3.517714866895115</v>
       </c>
       <c r="Q47" t="n">
-        <v>67.09492630461909</v>
+        <v>63.06588798460108</v>
       </c>
       <c r="R47" t="n">
-        <v>4.33466840677791</v>
+        <v>4.05798351487736</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -7229,28 +7229,28 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="AE47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG47" t="n">
         <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>1</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>2</v>
-      </c>
       <c r="AK47" t="n">
         <v>4</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM47" t="n">
         <v>3</v>
@@ -7265,16 +7265,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS47" t="n">
         <v>4</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -7289,64 +7289,64 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>62.30642188053861</v>
+        <v>61.09725661457188</v>
       </c>
       <c r="D48" t="n">
-        <v>4.153761458702573</v>
+        <v>4.073150440971459</v>
       </c>
       <c r="E48" t="n">
-        <v>44.4805394777209</v>
+        <v>44.29844386570861</v>
       </c>
       <c r="F48" t="n">
-        <v>4.448053947772091</v>
+        <v>4.429844386570862</v>
       </c>
       <c r="G48" t="n">
-        <v>97.75870685357651</v>
+        <v>95.2151287997964</v>
       </c>
       <c r="H48" t="n">
-        <v>4.655176516836977</v>
+        <v>4.534053752371257</v>
       </c>
       <c r="I48" t="n">
-        <v>94.08654625274364</v>
+        <v>88.28901691556877</v>
       </c>
       <c r="J48" t="n">
-        <v>3.920272760530984</v>
+        <v>3.678709038148698</v>
       </c>
       <c r="K48" t="n">
-        <v>36.96936630417759</v>
+        <v>34.31505279306107</v>
       </c>
       <c r="L48" t="n">
-        <v>4.621170788022198</v>
+        <v>4.289381599132634</v>
       </c>
       <c r="M48" t="n">
-        <v>66.83166303444273</v>
+        <v>66.41455328343936</v>
       </c>
       <c r="N48" t="n">
-        <v>3.931274296143689</v>
+        <v>3.90673842843761</v>
       </c>
       <c r="O48" t="n">
-        <v>58.05934167824465</v>
+        <v>53.71250487282</v>
       </c>
       <c r="P48" t="n">
-        <v>4.147095834160332</v>
+        <v>3.836607490915714</v>
       </c>
       <c r="Q48" t="n">
-        <v>65.78465506877781</v>
+        <v>63.33456530642373</v>
       </c>
       <c r="R48" t="n">
-        <v>4.268115086024121</v>
+        <v>4.106926448078319</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48" t="n">
         <v>6</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -7373,28 +7373,28 @@
         <v>0.125</v>
       </c>
       <c r="AE48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG48" t="n">
         <v>9</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK48" t="n">
         <v>5</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM48" t="n">
         <v>2</v>
@@ -7409,16 +7409,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS48" t="n">
         <v>6</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -7433,112 +7433,112 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>41.10385097347206</v>
+        <v>39.62404784230265</v>
       </c>
       <c r="D49" t="n">
-        <v>3.736713724861096</v>
+        <v>3.602186167482059</v>
       </c>
       <c r="E49" t="n">
-        <v>57.90853361615505</v>
+        <v>52.36731747550258</v>
       </c>
       <c r="F49" t="n">
-        <v>4.825711134679588</v>
+        <v>4.363943122958549</v>
       </c>
       <c r="G49" t="n">
-        <v>93.71337162693926</v>
+        <v>94.46273371980755</v>
       </c>
       <c r="H49" t="n">
-        <v>4.074494418562576</v>
+        <v>4.107075379122068</v>
       </c>
       <c r="I49" t="n">
-        <v>95.69762342341767</v>
+        <v>93.82631276214398</v>
       </c>
       <c r="J49" t="n">
-        <v>4.349891973791713</v>
+        <v>4.264832398279272</v>
       </c>
       <c r="K49" t="n">
-        <v>30.8067265633092</v>
+        <v>30.31623866766151</v>
       </c>
       <c r="L49" t="n">
-        <v>4.4009609376156</v>
+        <v>4.330891238237358</v>
       </c>
       <c r="M49" t="n">
-        <v>75.32271567202343</v>
+        <v>76.57398338584868</v>
       </c>
       <c r="N49" t="n">
-        <v>4.430747980707261</v>
+        <v>4.504351963873452</v>
       </c>
       <c r="O49" t="n">
-        <v>54.02220275225983</v>
+        <v>52.24797729022047</v>
       </c>
       <c r="P49" t="n">
-        <v>3.601480183483989</v>
+        <v>3.483198486014698</v>
       </c>
       <c r="Q49" t="n">
-        <v>64.08214637536807</v>
+        <v>62.77408730621249</v>
       </c>
       <c r="R49" t="n">
-        <v>4.202857193385975</v>
+        <v>4.093782679423922</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC49" t="n">
         <v>13</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AE49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG49" t="n">
         <v>6</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK49" t="n">
         <v>3</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM49" t="n">
         <v>3</v>
@@ -7553,16 +7553,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS49" t="n">
         <v>7</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="50">
@@ -7577,64 +7577,64 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46.08835986970954</v>
+        <v>45.42989518109179</v>
       </c>
       <c r="D50" t="n">
-        <v>3.840696655809128</v>
+        <v>3.785824598424315</v>
       </c>
       <c r="E50" t="n">
-        <v>49.72125219527327</v>
+        <v>50.1766413997312</v>
       </c>
       <c r="F50" t="n">
-        <v>3.551518013948091</v>
+        <v>3.584045814266514</v>
       </c>
       <c r="G50" t="n">
-        <v>98.56601584332924</v>
+        <v>99.43388291008333</v>
       </c>
       <c r="H50" t="n">
-        <v>4.285478949709967</v>
+        <v>4.323212300438405</v>
       </c>
       <c r="I50" t="n">
-        <v>105.2198283199761</v>
+        <v>106.4333599459186</v>
       </c>
       <c r="J50" t="n">
-        <v>4.208793132799043</v>
+        <v>4.257334397836746</v>
       </c>
       <c r="K50" t="n">
-        <v>34.8727659326146</v>
+        <v>35.23560747670014</v>
       </c>
       <c r="L50" t="n">
-        <v>3.48727659326146</v>
+        <v>3.523560747670014</v>
       </c>
       <c r="M50" t="n">
-        <v>49.4732624342157</v>
+        <v>50.06881119577649</v>
       </c>
       <c r="N50" t="n">
-        <v>3.533804459586835</v>
+        <v>3.576343656841177</v>
       </c>
       <c r="O50" t="n">
-        <v>51.91241600015636</v>
+        <v>51.44662190006407</v>
       </c>
       <c r="P50" t="n">
-        <v>3.708029714296883</v>
+        <v>3.674758707147433</v>
       </c>
       <c r="Q50" t="n">
-        <v>62.26484294218211</v>
+        <v>62.60354571562366</v>
       </c>
       <c r="R50" t="n">
-        <v>3.802228217058773</v>
+        <v>3.817868603232086</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U50" t="n">
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="W50" t="n">
         <v>4</v>
@@ -7661,28 +7661,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>1</v>
       </c>
-      <c r="AJ50" t="n">
-        <v>2</v>
-      </c>
       <c r="AK50" t="n">
         <v>7</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AM50" t="n">
         <v>6</v>
@@ -7697,16 +7697,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS50" t="n">
         <v>7</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="51">
@@ -7721,64 +7721,64 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>48.59523943985825</v>
+        <v>45.5927258163057</v>
       </c>
       <c r="D51" t="n">
-        <v>3.738095341527558</v>
+        <v>3.507132755100439</v>
       </c>
       <c r="E51" t="n">
-        <v>41.83440729807455</v>
+        <v>39.52675952980113</v>
       </c>
       <c r="F51" t="n">
-        <v>3.803127936188595</v>
+        <v>3.593341775436466</v>
       </c>
       <c r="G51" t="n">
-        <v>97.74241788642044</v>
+        <v>98.28983909586209</v>
       </c>
       <c r="H51" t="n">
-        <v>4.072600745267518</v>
+        <v>4.095409962327587</v>
       </c>
       <c r="I51" t="n">
-        <v>101.8912705008608</v>
+        <v>100.9525284469227</v>
       </c>
       <c r="J51" t="n">
-        <v>4.075650820034433</v>
+        <v>4.03810113787691</v>
       </c>
       <c r="K51" t="n">
-        <v>26.39908369573466</v>
+        <v>25.71383258650686</v>
       </c>
       <c r="L51" t="n">
-        <v>4.399847282622444</v>
+        <v>4.285638764417811</v>
       </c>
       <c r="M51" t="n">
-        <v>42.60343906343657</v>
+        <v>43.05479205085598</v>
       </c>
       <c r="N51" t="n">
-        <v>3.550286588619714</v>
+        <v>3.587899337571331</v>
       </c>
       <c r="O51" t="n">
-        <v>65.33377525691117</v>
+        <v>64.08267756678234</v>
       </c>
       <c r="P51" t="n">
-        <v>3.843163250406539</v>
+        <v>3.769569268634255</v>
       </c>
       <c r="Q51" t="n">
-        <v>60.62851902018521</v>
+        <v>59.60187929900526</v>
       </c>
       <c r="R51" t="n">
-        <v>3.926110280666686</v>
+        <v>3.839584714480686</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U51" t="n">
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W51" t="n">
         <v>3</v>
@@ -7805,28 +7805,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK51" t="n">
         <v>3</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM51" t="n">
         <v>4</v>
@@ -7841,16 +7841,16 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="AQ51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS51" t="n">
         <v>10</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -7865,64 +7865,64 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>62.936949130351</v>
+        <v>61.20796021458764</v>
       </c>
       <c r="D52" t="n">
-        <v>4.195796608690067</v>
+        <v>4.080530680972509</v>
       </c>
       <c r="E52" t="n">
-        <v>64.84792980098121</v>
+        <v>64.07650888981352</v>
       </c>
       <c r="F52" t="n">
-        <v>4.631994985784371</v>
+        <v>4.576893492129538</v>
       </c>
       <c r="G52" t="n">
-        <v>100.8619394516531</v>
+        <v>101.762040340536</v>
       </c>
       <c r="H52" t="n">
-        <v>4.802949497697766</v>
+        <v>4.845811444787429</v>
       </c>
       <c r="I52" t="n">
-        <v>99.99918520212141</v>
+        <v>99.57576226356561</v>
       </c>
       <c r="J52" t="n">
-        <v>4.347790660961802</v>
+        <v>4.329380967981114</v>
       </c>
       <c r="K52" t="n">
-        <v>22.06088986620043</v>
+        <v>21.08355569481015</v>
       </c>
       <c r="L52" t="n">
-        <v>4.412177973240085</v>
+        <v>4.21671113896203</v>
       </c>
       <c r="M52" t="n">
-        <v>79.7563735867797</v>
+        <v>82.35364438291603</v>
       </c>
       <c r="N52" t="n">
-        <v>4.430909643709983</v>
+        <v>4.575202465717558</v>
       </c>
       <c r="O52" t="n">
-        <v>74.72208380265191</v>
+        <v>71.76293343724628</v>
       </c>
       <c r="P52" t="n">
-        <v>4.395416694273642</v>
+        <v>4.221349025720371</v>
       </c>
       <c r="Q52" t="n">
-        <v>72.16933583439125</v>
+        <v>71.68891503192503</v>
       </c>
       <c r="R52" t="n">
-        <v>4.459576580622531</v>
+        <v>4.406554173752935</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U52" t="n">
         <v>7</v>
       </c>
       <c r="V52" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -7949,28 +7949,28 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="AE52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM52" t="n">
         <v>3</v>
@@ -7985,16 +7985,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS52" t="n">
         <v>10</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
@@ -8009,64 +8009,64 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>43.19443568844305</v>
+        <v>41.6797258127145</v>
       </c>
       <c r="D53" t="n">
-        <v>3.599536307370254</v>
+        <v>3.473310484392874</v>
       </c>
       <c r="E53" t="n">
-        <v>38.69721036303547</v>
+        <v>38.56391598479615</v>
       </c>
       <c r="F53" t="n">
-        <v>3.517928214821406</v>
+        <v>3.505810544072377</v>
       </c>
       <c r="G53" t="n">
-        <v>100.8449609770503</v>
+        <v>103.2404654281376</v>
       </c>
       <c r="H53" t="n">
-        <v>4.201873374043762</v>
+        <v>4.301686059505735</v>
       </c>
       <c r="I53" t="n">
-        <v>103.0877087748052</v>
+        <v>103.5959451977648</v>
       </c>
       <c r="J53" t="n">
-        <v>4.123508350992208</v>
+        <v>4.143837807910591</v>
       </c>
       <c r="K53" t="n">
-        <v>16.81835867085868</v>
+        <v>15.12097354962366</v>
       </c>
       <c r="L53" t="n">
-        <v>4.20458966771467</v>
+        <v>3.780243387405915</v>
       </c>
       <c r="M53" t="n">
-        <v>58.55110694511132</v>
+        <v>60.32873084511295</v>
       </c>
       <c r="N53" t="n">
-        <v>4.182221924650809</v>
+        <v>4.309195060365211</v>
       </c>
       <c r="O53" t="n">
-        <v>37.65848187723916</v>
+        <v>36.61266783883708</v>
       </c>
       <c r="P53" t="n">
-        <v>3.138206823103263</v>
+        <v>3.051055653236423</v>
       </c>
       <c r="Q53" t="n">
-        <v>56.97889475664902</v>
+        <v>57.02034637956953</v>
       </c>
       <c r="R53" t="n">
-        <v>3.85255209467091</v>
+        <v>3.795019856698447</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W53" t="n">
         <v>3</v>
@@ -8093,28 +8093,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM53" t="n">
         <v>2</v>
@@ -8129,16 +8129,16 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AQ53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS53" t="n">
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54">
@@ -8153,64 +8153,64 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38.5036636661896</v>
+        <v>36.8879444368077</v>
       </c>
       <c r="D54" t="n">
-        <v>3.500333060562691</v>
+        <v>3.353449494255246</v>
       </c>
       <c r="E54" t="n">
-        <v>46.99895609043621</v>
+        <v>49.08781278646571</v>
       </c>
       <c r="F54" t="n">
-        <v>4.272632371857837</v>
+        <v>4.462528435133246</v>
       </c>
       <c r="G54" t="n">
-        <v>91.04887492345712</v>
+        <v>96.03730401022065</v>
       </c>
       <c r="H54" t="n">
-        <v>4.138585223793505</v>
+        <v>4.365332000464575</v>
       </c>
       <c r="I54" t="n">
-        <v>103.4425547994418</v>
+        <v>104.889764925213</v>
       </c>
       <c r="J54" t="n">
-        <v>4.137702191977673</v>
+        <v>4.195590597008523</v>
       </c>
       <c r="K54" t="n">
-        <v>28.29004463406706</v>
+        <v>27.75295621723278</v>
       </c>
       <c r="L54" t="n">
-        <v>4.041434947723865</v>
+        <v>3.964708031033254</v>
       </c>
       <c r="M54" t="n">
-        <v>73.80252555181195</v>
+        <v>75.25984936807482</v>
       </c>
       <c r="N54" t="n">
-        <v>4.100140308433997</v>
+        <v>4.181102742670824</v>
       </c>
       <c r="O54" t="n">
-        <v>44.15592843460841</v>
+        <v>44.0964813306034</v>
       </c>
       <c r="P54" t="n">
-        <v>3.679660702884034</v>
+        <v>3.674706777550283</v>
       </c>
       <c r="Q54" t="n">
-        <v>60.89179258571602</v>
+        <v>62.00173043923116</v>
       </c>
       <c r="R54" t="n">
-        <v>3.981498401033372</v>
+        <v>4.028202582587993</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
@@ -8237,28 +8237,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
         <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>1</v>
       </c>
-      <c r="AJ54" t="n">
-        <v>2</v>
-      </c>
       <c r="AK54" t="n">
         <v>4</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM54" t="n">
         <v>2</v>
@@ -8273,16 +8273,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS54" t="n">
         <v>4</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="55">
@@ -8297,52 +8297,52 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>41.95071671584212</v>
+        <v>44.33304596151022</v>
       </c>
       <c r="D55" t="n">
-        <v>3.49589305965351</v>
+        <v>3.694420496792519</v>
       </c>
       <c r="E55" t="n">
-        <v>44.66458567291915</v>
+        <v>41.37819850285443</v>
       </c>
       <c r="F55" t="n">
-        <v>4.060416879356286</v>
+        <v>3.761654409350403</v>
       </c>
       <c r="G55" t="n">
-        <v>92.74112080710906</v>
+        <v>97.67826630156152</v>
       </c>
       <c r="H55" t="n">
-        <v>4.21550549123223</v>
+        <v>4.439921195525524</v>
       </c>
       <c r="I55" t="n">
-        <v>106.8222859834674</v>
+        <v>102.4919093544677</v>
       </c>
       <c r="J55" t="n">
-        <v>4.272891439338698</v>
+        <v>4.099676374178709</v>
       </c>
       <c r="K55" t="n">
-        <v>28.81238905952417</v>
+        <v>27.24562812792606</v>
       </c>
       <c r="L55" t="n">
-        <v>4.116055579932025</v>
+        <v>3.892232589703722</v>
       </c>
       <c r="M55" t="n">
-        <v>67.89065957022592</v>
+        <v>67.19995096563254</v>
       </c>
       <c r="N55" t="n">
-        <v>3.771703309456995</v>
+        <v>3.733330609201807</v>
       </c>
       <c r="O55" t="n">
-        <v>51.1139654964287</v>
+        <v>47.59284007518182</v>
       </c>
       <c r="P55" t="n">
-        <v>3.931843499725285</v>
+        <v>3.660987698090909</v>
       </c>
       <c r="Q55" t="n">
-        <v>61.99938904364522</v>
+        <v>61.13140561273347</v>
       </c>
       <c r="R55" t="n">
-        <v>3.980615608385004</v>
+        <v>3.897460481834799</v>
       </c>
       <c r="S55" t="n">
         <v>4</v>
@@ -8381,28 +8381,28 @@
         <v>0.4</v>
       </c>
       <c r="AE55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG55" t="n">
         <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>1</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>2</v>
-      </c>
       <c r="AK55" t="n">
         <v>4</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM55" t="n">
         <v>3</v>
@@ -8417,16 +8417,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS55" t="n">
         <v>4</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56">
@@ -8441,64 +8441,64 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>43.03657527850845</v>
+        <v>42.49138064560685</v>
       </c>
       <c r="D56" t="n">
-        <v>3.074041091322032</v>
+        <v>3.035098617543346</v>
       </c>
       <c r="E56" t="n">
-        <v>28.93971275576067</v>
+        <v>29.17926789263143</v>
       </c>
       <c r="F56" t="n">
-        <v>3.215523639528963</v>
+        <v>3.242140876959048</v>
       </c>
       <c r="G56" t="n">
-        <v>80.4619439961256</v>
+        <v>81.59937850377328</v>
       </c>
       <c r="H56" t="n">
-        <v>3.831521142672648</v>
+        <v>3.885684690655871</v>
       </c>
       <c r="I56" t="n">
-        <v>100.6137020362375</v>
+        <v>101.8853580048338</v>
       </c>
       <c r="J56" t="n">
-        <v>3.869757770624518</v>
+        <v>3.918667615570529</v>
       </c>
       <c r="K56" t="n">
-        <v>15.05630881944413</v>
+        <v>14.78733621688554</v>
       </c>
       <c r="L56" t="n">
-        <v>3.011261763888826</v>
+        <v>2.957467243377107</v>
       </c>
       <c r="M56" t="n">
-        <v>35.32135686043765</v>
+        <v>35.92052641458518</v>
       </c>
       <c r="N56" t="n">
-        <v>2.717027450802896</v>
+        <v>2.763117416506553</v>
       </c>
       <c r="O56" t="n">
-        <v>40.69469367044263</v>
+        <v>40.64966764204647</v>
       </c>
       <c r="P56" t="n">
-        <v>2.712979578029509</v>
+        <v>2.709977842803098</v>
       </c>
       <c r="Q56" t="n">
-        <v>49.16061334527951</v>
+        <v>49.50184504576607</v>
       </c>
       <c r="R56" t="n">
-        <v>3.204587490981342</v>
+        <v>3.216022043345079</v>
       </c>
       <c r="S56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W56" t="n">
         <v>5</v>
@@ -8525,28 +8525,28 @@
         <v>0.4375</v>
       </c>
       <c r="AE56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG56" t="n">
         <v>12</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AI56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK56" t="n">
         <v>1</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM56" t="n">
         <v>7</v>
@@ -8561,16 +8561,16 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="AQ56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS56" t="n">
         <v>6</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="57">
@@ -8585,64 +8585,64 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34.55506613895345</v>
+        <v>32.06093787254851</v>
       </c>
       <c r="D57" t="n">
-        <v>3.141369648995768</v>
+        <v>2.914630715686228</v>
       </c>
       <c r="E57" t="n">
-        <v>34.28628019280472</v>
+        <v>35.05344370709351</v>
       </c>
       <c r="F57" t="n">
-        <v>3.116934562982248</v>
+        <v>3.186676700644865</v>
       </c>
       <c r="G57" t="n">
-        <v>102.2420269011521</v>
+        <v>102.7376038819487</v>
       </c>
       <c r="H57" t="n">
-        <v>4.089681076046082</v>
+        <v>4.109504155277948</v>
       </c>
       <c r="I57" t="n">
-        <v>86.82012682006126</v>
+        <v>88.68780125141184</v>
       </c>
       <c r="J57" t="n">
-        <v>3.472805072802451</v>
+        <v>3.547512050056473</v>
       </c>
       <c r="K57" t="n">
-        <v>20.72417503481385</v>
+        <v>22.04536346343426</v>
       </c>
       <c r="L57" t="n">
-        <v>3.454029172468974</v>
+        <v>3.67422724390571</v>
       </c>
       <c r="M57" t="n">
-        <v>59.16204453370917</v>
+        <v>60.46249483374534</v>
       </c>
       <c r="N57" t="n">
-        <v>3.697627783356823</v>
+        <v>3.778905927109083</v>
       </c>
       <c r="O57" t="n">
-        <v>51.13258977479576</v>
+        <v>51.16748117374436</v>
       </c>
       <c r="P57" t="n">
-        <v>3.408839318319717</v>
+        <v>3.411165411582957</v>
       </c>
       <c r="Q57" t="n">
-        <v>55.56032991375575</v>
+        <v>56.0307323119895</v>
       </c>
       <c r="R57" t="n">
-        <v>3.483040947853152</v>
+        <v>3.517517457751895</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W57" t="n">
         <v>4</v>
@@ -8669,28 +8669,28 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AE57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK57" t="n">
         <v>3</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM57" t="n">
         <v>3</v>
@@ -8705,16 +8705,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS57" t="n">
         <v>5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="58">
@@ -8729,64 +8729,64 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>51.83544336005768</v>
+        <v>54.06796502901191</v>
       </c>
       <c r="D58" t="n">
-        <v>3.702531668575548</v>
+        <v>3.861997502072279</v>
       </c>
       <c r="E58" t="n">
-        <v>55.44677623553081</v>
+        <v>57.94586862868152</v>
       </c>
       <c r="F58" t="n">
-        <v>4.265136633502371</v>
+        <v>4.457374509898577</v>
       </c>
       <c r="G58" t="n">
-        <v>90.56434926195077</v>
+        <v>94.85336781890643</v>
       </c>
       <c r="H58" t="n">
-        <v>4.528217463097538</v>
+        <v>4.742668390945322</v>
       </c>
       <c r="I58" t="n">
-        <v>100.304481850573</v>
+        <v>104.5169584125766</v>
       </c>
       <c r="J58" t="n">
-        <v>4.179353410440541</v>
+        <v>4.354873267190692</v>
       </c>
       <c r="K58" t="n">
-        <v>40.69279752771019</v>
+        <v>41.57514525526735</v>
       </c>
       <c r="L58" t="n">
-        <v>4.06927975277102</v>
+        <v>4.157514525526735</v>
       </c>
       <c r="M58" t="n">
-        <v>49.04488510767396</v>
+        <v>50.75082168772742</v>
       </c>
       <c r="N58" t="n">
-        <v>3.503206079119568</v>
+        <v>3.62505869198053</v>
       </c>
       <c r="O58" t="n">
-        <v>45.8373709076407</v>
+        <v>47.01194540099035</v>
       </c>
       <c r="P58" t="n">
-        <v>3.525951608280054</v>
+        <v>3.616303492383873</v>
       </c>
       <c r="Q58" t="n">
-        <v>61.96087203587673</v>
+        <v>64.38886746188022</v>
       </c>
       <c r="R58" t="n">
-        <v>3.96766808796952</v>
+        <v>4.116541482856858</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="W58" t="n">
         <v>3</v>
@@ -8813,28 +8813,28 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AE58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
         <v>8</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK58" t="n">
         <v>6</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM58" t="n">
         <v>6</v>
@@ -8849,16 +8849,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS58" t="n">
         <v>5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="59">
@@ -8873,76 +8873,76 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>46.57428971277697</v>
+        <v>43.64667333970604</v>
       </c>
       <c r="D59" t="n">
-        <v>3.582637670213613</v>
+        <v>3.357436410746618</v>
       </c>
       <c r="E59" t="n">
-        <v>40.59173944593672</v>
+        <v>39.16860284436289</v>
       </c>
       <c r="F59" t="n">
-        <v>4.059173944593671</v>
+        <v>3.916860284436289</v>
       </c>
       <c r="G59" t="n">
-        <v>98.29162610345112</v>
+        <v>98.74517850670694</v>
       </c>
       <c r="H59" t="n">
-        <v>4.680553623973863</v>
+        <v>4.702151357462235</v>
       </c>
       <c r="I59" t="n">
-        <v>103.4412068590247</v>
+        <v>104.8375821191355</v>
       </c>
       <c r="J59" t="n">
-        <v>4.310050285792695</v>
+        <v>4.368232588297313</v>
       </c>
       <c r="K59" t="n">
-        <v>30.94700940861679</v>
+        <v>31.0268160838392</v>
       </c>
       <c r="L59" t="n">
-        <v>4.421001344088114</v>
+        <v>4.432402297691315</v>
       </c>
       <c r="M59" t="n">
-        <v>50.60671829037753</v>
+        <v>52.0694271491454</v>
       </c>
       <c r="N59" t="n">
-        <v>3.892824483875196</v>
+        <v>4.005340549934261</v>
       </c>
       <c r="O59" t="n">
-        <v>68.07312176366179</v>
+        <v>63.5255153061419</v>
       </c>
       <c r="P59" t="n">
-        <v>4.254570110228862</v>
+        <v>3.970344706633869</v>
       </c>
       <c r="Q59" t="n">
-        <v>62.64653022626366</v>
+        <v>61.85997076414827</v>
       </c>
       <c r="R59" t="n">
-        <v>4.171544494680859</v>
+        <v>4.107538313600271</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
         <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y59" t="n">
         <v>4</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AA59" t="n">
         <v>1</v>
@@ -8957,28 +8957,28 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="AE59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG59" t="n">
         <v>9</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK59" t="n">
         <v>4</v>
       </c>
       <c r="AL59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM59" t="n">
         <v>3</v>
@@ -8993,16 +8993,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS59" t="n">
         <v>8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -9017,52 +9017,52 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>48.9352367183525</v>
+        <v>50.78225868250446</v>
       </c>
       <c r="D60" t="n">
-        <v>3.495374051310893</v>
+        <v>3.627304191607462</v>
       </c>
       <c r="E60" t="n">
-        <v>63.07797383943026</v>
+        <v>64.05190629704383</v>
       </c>
       <c r="F60" t="n">
-        <v>4.505569559959304</v>
+        <v>4.57513616407456</v>
       </c>
       <c r="G60" t="n">
-        <v>85.8920115293443</v>
+        <v>91.62408944773347</v>
       </c>
       <c r="H60" t="n">
-        <v>4.771778418296906</v>
+        <v>5.090227191540749</v>
       </c>
       <c r="I60" t="n">
-        <v>90.41791076376698</v>
+        <v>94.08167141598113</v>
       </c>
       <c r="J60" t="n">
-        <v>3.931213511468129</v>
+        <v>4.090507452868744</v>
       </c>
       <c r="K60" t="n">
-        <v>24.62762488683455</v>
+        <v>24.78036424577549</v>
       </c>
       <c r="L60" t="n">
-        <v>4.104604147805759</v>
+        <v>4.130060707629248</v>
       </c>
       <c r="M60" t="n">
-        <v>74.24870480452638</v>
+        <v>79.85562518605497</v>
       </c>
       <c r="N60" t="n">
-        <v>4.12492804469591</v>
+        <v>4.436423621447498</v>
       </c>
       <c r="O60" t="n">
-        <v>68.03903938912615</v>
+        <v>68.29070302491805</v>
       </c>
       <c r="P60" t="n">
-        <v>4.252439961820383</v>
+        <v>4.268168939057378</v>
       </c>
       <c r="Q60" t="n">
-        <v>65.03407170448301</v>
+        <v>67.63808832857306</v>
       </c>
       <c r="R60" t="n">
-        <v>4.169415385051041</v>
+        <v>4.31683260974652</v>
       </c>
       <c r="S60" t="n">
         <v>6</v>
@@ -9101,28 +9101,28 @@
         <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
         <v>8</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
         <v>3</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM60" t="n">
         <v>3</v>
@@ -9137,16 +9137,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS60" t="n">
         <v>8</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -9161,64 +9161,64 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>58.45747768492153</v>
+        <v>60.21369160161628</v>
       </c>
       <c r="D61" t="n">
-        <v>3.897165178994769</v>
+        <v>4.014246106774418</v>
       </c>
       <c r="E61" t="n">
-        <v>39.31245558384222</v>
+        <v>41.2649842383838</v>
       </c>
       <c r="F61" t="n">
-        <v>3.931245558384222</v>
+        <v>4.126498423838381</v>
       </c>
       <c r="G61" t="n">
-        <v>81.65872617805414</v>
+        <v>83.05768568902126</v>
       </c>
       <c r="H61" t="n">
-        <v>3.888510770383531</v>
+        <v>3.955127889953393</v>
       </c>
       <c r="I61" t="n">
-        <v>98.90570151239497</v>
+        <v>101.4351866889077</v>
       </c>
       <c r="J61" t="n">
-        <v>4.121070896349791</v>
+        <v>4.226466112037823</v>
       </c>
       <c r="K61" t="n">
-        <v>22.16731384207127</v>
+        <v>21.31864040478</v>
       </c>
       <c r="L61" t="n">
-        <v>4.433462768414254</v>
+        <v>4.263728080956</v>
       </c>
       <c r="M61" t="n">
-        <v>51.1286644820033</v>
+        <v>54.00171071353127</v>
       </c>
       <c r="N61" t="n">
-        <v>3.932974190923331</v>
+        <v>4.153977747194713</v>
       </c>
       <c r="O61" t="n">
-        <v>48.80122674868952</v>
+        <v>49.02952164035837</v>
       </c>
       <c r="P61" t="n">
-        <v>3.48580191062068</v>
+        <v>3.502108688597027</v>
       </c>
       <c r="Q61" t="n">
-        <v>57.20450943313956</v>
+        <v>58.61734585379982</v>
       </c>
       <c r="R61" t="n">
-        <v>3.955747324867225</v>
+        <v>4.034593292764536</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>6</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W61" t="n">
         <v>2</v>
@@ -9245,28 +9245,28 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="AE61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG61" t="n">
         <v>9</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK61" t="n">
         <v>2</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM61" t="n">
         <v>3</v>
@@ -9281,16 +9281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS61" t="n">
         <v>6</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
@@ -9305,64 +9305,64 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>59.86095829743515</v>
+        <v>60.51693625688608</v>
       </c>
       <c r="D62" t="n">
-        <v>4.275782735531081</v>
+        <v>4.322638304063291</v>
       </c>
       <c r="E62" t="n">
-        <v>45.90096668591068</v>
+        <v>46.17984149561364</v>
       </c>
       <c r="F62" t="n">
-        <v>4.590096668591068</v>
+        <v>4.617984149561363</v>
       </c>
       <c r="G62" t="n">
-        <v>106.8002653452668</v>
+        <v>107.2015653957404</v>
       </c>
       <c r="H62" t="n">
-        <v>4.854557515693945</v>
+        <v>4.872798427079109</v>
       </c>
       <c r="I62" t="n">
-        <v>89.04740136451204</v>
+        <v>85.33551900382444</v>
       </c>
       <c r="J62" t="n">
-        <v>3.871626146283132</v>
+        <v>3.71023995668802</v>
       </c>
       <c r="K62" t="n">
-        <v>37.4224838017659</v>
+        <v>34.35409754613251</v>
       </c>
       <c r="L62" t="n">
-        <v>4.677810475220737</v>
+        <v>4.294262193266563</v>
       </c>
       <c r="M62" t="n">
-        <v>69.24405288167272</v>
+        <v>69.21384370127927</v>
       </c>
       <c r="N62" t="n">
-        <v>4.073179581274866</v>
+        <v>4.071402570663487</v>
       </c>
       <c r="O62" t="n">
-        <v>59.51678426384267</v>
+        <v>64.42580264643911</v>
       </c>
       <c r="P62" t="n">
-        <v>4.251198875988762</v>
+        <v>4.601843046174222</v>
       </c>
       <c r="Q62" t="n">
-        <v>66.82755894862943</v>
+        <v>66.74680086370221</v>
       </c>
       <c r="R62" t="n">
-        <v>4.370607428369085</v>
+        <v>4.35588123535658</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -9389,40 +9389,40 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="AE62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
         <v>6</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK62" t="n">
         <v>5</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO62" t="n">
         <v>8</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ62" t="n">
         <v>3</v>
@@ -9449,64 +9449,64 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>62.6770775927261</v>
+        <v>66.21412967206561</v>
       </c>
       <c r="D63" t="n">
-        <v>4.178471839515074</v>
+        <v>4.414275311471042</v>
       </c>
       <c r="E63" t="n">
-        <v>42.82877334797229</v>
+        <v>45.48351598460545</v>
       </c>
       <c r="F63" t="n">
-        <v>4.282877334797229</v>
+        <v>4.548351598460545</v>
       </c>
       <c r="G63" t="n">
-        <v>96.1005671039259</v>
+        <v>99.19243460198464</v>
       </c>
       <c r="H63" t="n">
-        <v>4.576217481139329</v>
+        <v>4.723449266761174</v>
       </c>
       <c r="I63" t="n">
-        <v>96.21488732483662</v>
+        <v>96.39365650680342</v>
       </c>
       <c r="J63" t="n">
-        <v>4.00895363853486</v>
+        <v>4.016402354450141</v>
       </c>
       <c r="K63" t="n">
-        <v>36.2590738573885</v>
+        <v>35.67552413525958</v>
       </c>
       <c r="L63" t="n">
-        <v>4.532384232173563</v>
+        <v>4.459440516907446</v>
       </c>
       <c r="M63" t="n">
-        <v>62.05220343169771</v>
+        <v>63.41875903004236</v>
       </c>
       <c r="N63" t="n">
-        <v>3.650129613629277</v>
+        <v>3.730515237061315</v>
       </c>
       <c r="O63" t="n">
-        <v>58.88777113018121</v>
+        <v>58.75480254319158</v>
       </c>
       <c r="P63" t="n">
-        <v>4.206269366441516</v>
+        <v>4.19677161022797</v>
       </c>
       <c r="Q63" t="n">
-        <v>65.00290768410404</v>
+        <v>66.44754606770752</v>
       </c>
       <c r="R63" t="n">
-        <v>4.205043358032978</v>
+        <v>4.298457985048519</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U63" t="n">
         <v>6</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -9533,28 +9533,28 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="AE63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
         <v>9</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK63" t="n">
         <v>5</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM63" t="n">
         <v>2</v>
@@ -9569,16 +9569,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS63" t="n">
         <v>6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
@@ -9593,64 +9593,64 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>42.91693172137591</v>
+        <v>44.56347568224729</v>
       </c>
       <c r="D64" t="n">
-        <v>3.065495122955422</v>
+        <v>3.183105405874806</v>
       </c>
       <c r="E64" t="n">
-        <v>27.82841156409319</v>
+        <v>29.25165844061272</v>
       </c>
       <c r="F64" t="n">
-        <v>3.092045729343687</v>
+        <v>3.250184271179191</v>
       </c>
       <c r="G64" t="n">
-        <v>73.56265615537596</v>
+        <v>76.24013776493659</v>
       </c>
       <c r="H64" t="n">
-        <v>3.502983626446474</v>
+        <v>3.630482750711266</v>
       </c>
       <c r="I64" t="n">
-        <v>97.46651250919528</v>
+        <v>101.8977853566952</v>
       </c>
       <c r="J64" t="n">
-        <v>3.748712019584434</v>
+        <v>3.919145590642123</v>
       </c>
       <c r="K64" t="n">
-        <v>15.30740395210542</v>
+        <v>15.43259884168545</v>
       </c>
       <c r="L64" t="n">
-        <v>3.061480790421085</v>
+        <v>3.08651976833709</v>
       </c>
       <c r="M64" t="n">
-        <v>35.03852997423082</v>
+        <v>36.27935986448512</v>
       </c>
       <c r="N64" t="n">
-        <v>2.695271536479294</v>
+        <v>2.790719989575778</v>
       </c>
       <c r="O64" t="n">
-        <v>39.43706276370165</v>
+        <v>40.87777413733247</v>
       </c>
       <c r="P64" t="n">
-        <v>2.629137517580109</v>
+        <v>2.725184942488831</v>
       </c>
       <c r="Q64" t="n">
-        <v>47.36535837715403</v>
+        <v>49.22039858399926</v>
       </c>
       <c r="R64" t="n">
-        <v>3.113589477544358</v>
+        <v>3.226477531258441</v>
       </c>
       <c r="S64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W64" t="n">
         <v>5</v>
@@ -9677,28 +9677,28 @@
         <v>0.35</v>
       </c>
       <c r="AE64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK64" t="n">
         <v>1</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM64" t="n">
         <v>7</v>
@@ -9713,16 +9713,16 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="AQ64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS64" t="n">
         <v>6</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -9737,112 +9737,112 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>57.97408575487246</v>
+        <v>59.04153817874604</v>
       </c>
       <c r="D65" t="n">
-        <v>4.141006125348033</v>
+        <v>4.217252727053288</v>
       </c>
       <c r="E65" t="n">
-        <v>37.48660574919583</v>
+        <v>42.13960938348054</v>
       </c>
       <c r="F65" t="n">
-        <v>3.407873249926894</v>
+        <v>3.830873580316413</v>
       </c>
       <c r="G65" t="n">
-        <v>83.64691666469756</v>
+        <v>86.41194979169489</v>
       </c>
       <c r="H65" t="n">
-        <v>3.98318650784274</v>
+        <v>4.114854751985471</v>
       </c>
       <c r="I65" t="n">
-        <v>106.9687178387111</v>
+        <v>115.7341177434809</v>
       </c>
       <c r="J65" t="n">
-        <v>3.961804364396705</v>
+        <v>4.286448805314108</v>
       </c>
       <c r="K65" t="n">
-        <v>29.00772854194836</v>
+        <v>28.33693265720914</v>
       </c>
       <c r="L65" t="n">
-        <v>4.143961220278338</v>
+        <v>4.048133236744163</v>
       </c>
       <c r="M65" t="n">
-        <v>49.9294188677309</v>
+        <v>52.55509174249882</v>
       </c>
       <c r="N65" t="n">
-        <v>3.328627924515393</v>
+        <v>3.503672782833255</v>
       </c>
       <c r="O65" t="n">
-        <v>49.96037901426998</v>
+        <v>53.61805424266056</v>
       </c>
       <c r="P65" t="n">
-        <v>3.330691934284665</v>
+        <v>3.574536949510704</v>
       </c>
       <c r="Q65" t="n">
-        <v>59.28197891877517</v>
+        <v>62.54818481996728</v>
       </c>
       <c r="R65" t="n">
-        <v>3.756735903798967</v>
+        <v>3.9393961191082</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>7</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y65" t="n">
         <v>4</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AA65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC65" t="n">
         <v>7</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AE65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG65" t="n">
         <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK65" t="n">
         <v>4</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM65" t="n">
         <v>5</v>
@@ -9881,64 +9881,64 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>39.29393636241784</v>
+        <v>39.08852764210271</v>
       </c>
       <c r="D66" t="n">
-        <v>3.572176032947076</v>
+        <v>3.553502512918429</v>
       </c>
       <c r="E66" t="n">
-        <v>58.34867184499858</v>
+        <v>58.05696878676131</v>
       </c>
       <c r="F66" t="n">
-        <v>3.889911456333238</v>
+        <v>3.870464585784087</v>
       </c>
       <c r="G66" t="n">
-        <v>90.03932600722722</v>
+        <v>90.62124049512335</v>
       </c>
       <c r="H66" t="n">
-        <v>4.092696636692146</v>
+        <v>4.11914729523288</v>
       </c>
       <c r="I66" t="n">
-        <v>86.5502483232647</v>
+        <v>87.80476847817107</v>
       </c>
       <c r="J66" t="n">
-        <v>3.934102196512031</v>
+        <v>3.991125839916866</v>
       </c>
       <c r="K66" t="n">
-        <v>35.11051458515037</v>
+        <v>37.141823925842</v>
       </c>
       <c r="L66" t="n">
-        <v>3.901168287238929</v>
+        <v>4.126869325093556</v>
       </c>
       <c r="M66" t="n">
-        <v>58.44893187956105</v>
+        <v>59.85079087504683</v>
       </c>
       <c r="N66" t="n">
-        <v>3.896595458637403</v>
+        <v>3.990052725003122</v>
       </c>
       <c r="O66" t="n">
-        <v>41.94581382594812</v>
+        <v>41.35305900528903</v>
       </c>
       <c r="P66" t="n">
-        <v>3.226601063534471</v>
+        <v>3.181004538868387</v>
       </c>
       <c r="Q66" t="n">
-        <v>58.53392040408112</v>
+        <v>59.1310256011909</v>
       </c>
       <c r="R66" t="n">
-        <v>3.787607304556471</v>
+        <v>3.833166688973904</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="W66" t="n">
         <v>2</v>
@@ -9965,28 +9965,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
         <v>5</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK66" t="n">
         <v>4</v>
       </c>
       <c r="AL66" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM66" t="n">
         <v>4</v>
@@ -10001,16 +10001,16 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="AQ66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS66" t="n">
         <v>4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="67">
@@ -10025,64 +10025,64 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>48.9525040261463</v>
+        <v>48.50133200969779</v>
       </c>
       <c r="D67" t="n">
-        <v>4.079375335512191</v>
+        <v>4.041777667474815</v>
       </c>
       <c r="E67" t="n">
-        <v>54.10165999353069</v>
+        <v>51.25125096467453</v>
       </c>
       <c r="F67" t="n">
-        <v>4.508471666127557</v>
+        <v>4.270937580389544</v>
       </c>
       <c r="G67" t="n">
-        <v>99.36854090775469</v>
+        <v>101.5788441080591</v>
       </c>
       <c r="H67" t="n">
-        <v>4.516751859443395</v>
+        <v>4.617220186729958</v>
       </c>
       <c r="I67" t="n">
-        <v>98.10178033740111</v>
+        <v>100.6002569750007</v>
       </c>
       <c r="J67" t="n">
-        <v>4.459171833518232</v>
+        <v>4.572738953409124</v>
       </c>
       <c r="K67" t="n">
-        <v>20.71060165307455</v>
+        <v>19.97068586430238</v>
       </c>
       <c r="L67" t="n">
-        <v>4.142120330614912</v>
+        <v>3.994137172860475</v>
       </c>
       <c r="M67" t="n">
-        <v>63.30219943939353</v>
+        <v>65.05382369808289</v>
       </c>
       <c r="N67" t="n">
-        <v>4.521585674242395</v>
+        <v>4.646701692720207</v>
       </c>
       <c r="O67" t="n">
-        <v>65.60746371297543</v>
+        <v>63.69204861698078</v>
       </c>
       <c r="P67" t="n">
-        <v>4.100466482060964</v>
+        <v>3.980753038561299</v>
       </c>
       <c r="Q67" t="n">
-        <v>64.30639286718232</v>
+        <v>64.3783203195426</v>
       </c>
       <c r="R67" t="n">
-        <v>4.332563311645663</v>
+        <v>4.303466613163632</v>
       </c>
       <c r="S67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W67" t="n">
         <v>2</v>
@@ -10109,28 +10109,28 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AE67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG67" t="n">
         <v>6</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM67" t="n">
         <v>3</v>
@@ -10145,16 +10145,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS67" t="n">
         <v>7</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -10169,64 +10169,64 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>50.27148921214013</v>
+        <v>53.43270949016794</v>
       </c>
       <c r="D68" t="n">
-        <v>3.59082065801001</v>
+        <v>3.816622106440567</v>
       </c>
       <c r="E68" t="n">
-        <v>61.30346434123737</v>
+        <v>65.44378204345942</v>
       </c>
       <c r="F68" t="n">
-        <v>4.378818881516955</v>
+        <v>4.674555860247103</v>
       </c>
       <c r="G68" t="n">
-        <v>84.03744555143076</v>
+        <v>85.11881363316202</v>
       </c>
       <c r="H68" t="n">
-        <v>4.423023450075303</v>
+        <v>4.479937559640106</v>
       </c>
       <c r="I68" t="n">
-        <v>97.8508871611451</v>
+        <v>101.7711565300562</v>
       </c>
       <c r="J68" t="n">
-        <v>4.447767598233868</v>
+        <v>4.625961660457101</v>
       </c>
       <c r="K68" t="n">
-        <v>26.94633912006539</v>
+        <v>26.47888368915248</v>
       </c>
       <c r="L68" t="n">
-        <v>4.491056520010898</v>
+        <v>4.413147281525413</v>
       </c>
       <c r="M68" t="n">
-        <v>72.43234576436912</v>
+        <v>78.02816377549489</v>
       </c>
       <c r="N68" t="n">
-        <v>4.260726221433477</v>
+        <v>4.589891986793817</v>
       </c>
       <c r="O68" t="n">
-        <v>63.87034640977781</v>
+        <v>64.58472378116093</v>
       </c>
       <c r="P68" t="n">
-        <v>3.991896650611113</v>
+        <v>4.036545236322557</v>
       </c>
       <c r="Q68" t="n">
-        <v>65.24461679430938</v>
+        <v>67.83689042037913</v>
       </c>
       <c r="R68" t="n">
-        <v>4.226301425698804</v>
+        <v>4.376665955918095</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>8</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
@@ -10241,16 +10241,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="AA68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC68" t="n">
         <v>7</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AE68" t="n">
         <v>3</v>
@@ -10265,16 +10265,16 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK68" t="n">
         <v>3</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM68" t="n">
         <v>3</v>
@@ -10289,16 +10289,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS68" t="n">
         <v>7</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -10313,64 +10313,64 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>32.40301297841171</v>
+        <v>31.72096317872875</v>
       </c>
       <c r="D69" t="n">
-        <v>2.945728452582883</v>
+        <v>2.883723925338978</v>
       </c>
       <c r="E69" t="n">
-        <v>42.70169638185084</v>
+        <v>43.32130797710848</v>
       </c>
       <c r="F69" t="n">
-        <v>3.881972398350076</v>
+        <v>3.93830072519168</v>
       </c>
       <c r="G69" t="n">
-        <v>96.90874211548645</v>
+        <v>98.83852134075761</v>
       </c>
       <c r="H69" t="n">
-        <v>4.037864254811935</v>
+        <v>4.118271722531567</v>
       </c>
       <c r="I69" t="n">
-        <v>102.449446590175</v>
+        <v>106.1771791813678</v>
       </c>
       <c r="J69" t="n">
-        <v>4.454323764790219</v>
+        <v>4.616399094842079</v>
       </c>
       <c r="K69" t="n">
-        <v>22.21669100142216</v>
+        <v>21.0135551694621</v>
       </c>
       <c r="L69" t="n">
-        <v>4.443338200284431</v>
+        <v>4.202711033892419</v>
       </c>
       <c r="M69" t="n">
-        <v>51.35902977521987</v>
+        <v>54.57117759100649</v>
       </c>
       <c r="N69" t="n">
-        <v>4.279919147934989</v>
+        <v>4.547598132583874</v>
       </c>
       <c r="O69" t="n">
-        <v>52.47475226746266</v>
+        <v>52.5567448338612</v>
       </c>
       <c r="P69" t="n">
-        <v>3.748196590533047</v>
+        <v>3.754053202418656</v>
       </c>
       <c r="Q69" t="n">
-        <v>57.21619587286124</v>
+        <v>58.31420703889892</v>
       </c>
       <c r="R69" t="n">
-        <v>3.970191829898225</v>
+        <v>4.008722548114179</v>
       </c>
       <c r="S69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>3</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W69" t="n">
         <v>2</v>
@@ -10397,28 +10397,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG69" t="n">
         <v>8</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK69" t="n">
         <v>2</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM69" t="n">
         <v>3</v>
@@ -10433,16 +10433,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS69" t="n">
         <v>5</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70">
@@ -10457,64 +10457,64 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>30.57107628029792</v>
+        <v>29.45502878415268</v>
       </c>
       <c r="D70" t="n">
-        <v>3.057107628029793</v>
+        <v>2.945502878415269</v>
       </c>
       <c r="E70" t="n">
-        <v>58.28141494214139</v>
+        <v>57.22044780630445</v>
       </c>
       <c r="F70" t="n">
-        <v>4.856784578511783</v>
+        <v>4.76837065052537</v>
       </c>
       <c r="G70" t="n">
-        <v>80.98881240591244</v>
+        <v>84.17429531686771</v>
       </c>
       <c r="H70" t="n">
-        <v>3.681309654814202</v>
+        <v>3.826104332584895</v>
       </c>
       <c r="I70" t="n">
-        <v>98.23111835416677</v>
+        <v>100.720645977264</v>
       </c>
       <c r="J70" t="n">
-        <v>4.270918189311598</v>
+        <v>4.379158520750611</v>
       </c>
       <c r="K70" t="n">
-        <v>28.56879776511774</v>
+        <v>28.83588493064955</v>
       </c>
       <c r="L70" t="n">
-        <v>4.081256823588249</v>
+        <v>4.119412132949936</v>
       </c>
       <c r="M70" t="n">
-        <v>72.81148805710802</v>
+        <v>76.15439673265178</v>
       </c>
       <c r="N70" t="n">
-        <v>4.283028709241648</v>
+        <v>4.479670396038339</v>
       </c>
       <c r="O70" t="n">
-        <v>50.01077546256886</v>
+        <v>52.29613182580791</v>
       </c>
       <c r="P70" t="n">
-        <v>3.572198247326347</v>
+        <v>3.735437987557708</v>
       </c>
       <c r="Q70" t="n">
-        <v>59.92335475247331</v>
+        <v>61.26526162481402</v>
       </c>
       <c r="R70" t="n">
-        <v>3.971800547260517</v>
+        <v>4.036236699831733</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -10541,28 +10541,28 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="AE70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
         <v>7</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK70" t="n">
         <v>3</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM70" t="n">
         <v>2</v>
@@ -10577,16 +10577,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS70" t="n">
         <v>7</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71">
@@ -10601,112 +10601,112 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>36.0016204675857</v>
+        <v>35.03822917002662</v>
       </c>
       <c r="D71" t="n">
-        <v>3.272874587962336</v>
+        <v>3.185293560911511</v>
       </c>
       <c r="E71" t="n">
-        <v>59.27370817319176</v>
+        <v>55.79955602309059</v>
       </c>
       <c r="F71" t="n">
-        <v>4.939475681099312</v>
+        <v>4.649963001924215</v>
       </c>
       <c r="G71" t="n">
-        <v>95.95583026799005</v>
+        <v>101.0468572256827</v>
       </c>
       <c r="H71" t="n">
-        <v>4.171992620347394</v>
+        <v>4.393341618507944</v>
       </c>
       <c r="I71" t="n">
-        <v>98.68875674344665</v>
+        <v>100.8228521493564</v>
       </c>
       <c r="J71" t="n">
-        <v>4.485852579247576</v>
+        <v>4.582856915879837</v>
       </c>
       <c r="K71" t="n">
-        <v>29.66862557820597</v>
+        <v>30.22686751856697</v>
       </c>
       <c r="L71" t="n">
-        <v>4.238375082600853</v>
+        <v>4.318123931223853</v>
       </c>
       <c r="M71" t="n">
-        <v>69.75211204108548</v>
+        <v>72.317699541473</v>
       </c>
       <c r="N71" t="n">
-        <v>4.103065414181499</v>
+        <v>4.253982325969001</v>
       </c>
       <c r="O71" t="n">
-        <v>57.70076577887308</v>
+        <v>59.18585317232437</v>
       </c>
       <c r="P71" t="n">
-        <v>3.846717718591539</v>
+        <v>3.945723544821624</v>
       </c>
       <c r="Q71" t="n">
-        <v>63.86305986433981</v>
+        <v>64.91970211436009</v>
       </c>
       <c r="R71" t="n">
-        <v>4.15119338343293</v>
+        <v>4.189897842748284</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
         <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y71" t="n">
         <v>7</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AA71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC71" t="n">
         <v>13</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AE71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG71" t="n">
         <v>6</v>
       </c>
       <c r="AH71" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL71" t="n">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
       </c>
       <c r="AM71" t="n">
         <v>3</v>
@@ -10721,16 +10721,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS71" t="n">
         <v>7</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
@@ -10745,64 +10745,64 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>29.3787916209512</v>
+        <v>30.162068635079</v>
       </c>
       <c r="D72" t="n">
-        <v>2.670799238268291</v>
+        <v>2.742006239552636</v>
       </c>
       <c r="E72" t="n">
-        <v>37.75500704169556</v>
+        <v>38.71023961334173</v>
       </c>
       <c r="F72" t="n">
-        <v>3.432273367426868</v>
+        <v>3.519112692121976</v>
       </c>
       <c r="G72" t="n">
-        <v>100.1231056896158</v>
+        <v>103.8208169278331</v>
       </c>
       <c r="H72" t="n">
-        <v>4.004924227584631</v>
+        <v>4.152832677113325</v>
       </c>
       <c r="I72" t="n">
-        <v>93.27363078470431</v>
+        <v>97.40845842114837</v>
       </c>
       <c r="J72" t="n">
-        <v>3.730945231388172</v>
+        <v>3.896338336845935</v>
       </c>
       <c r="K72" t="n">
-        <v>23.64507631233749</v>
+        <v>24.5343484761844</v>
       </c>
       <c r="L72" t="n">
-        <v>3.94084605205625</v>
+        <v>4.089058079364066</v>
       </c>
       <c r="M72" t="n">
-        <v>62.61103264130065</v>
+        <v>65.95916363527684</v>
       </c>
       <c r="N72" t="n">
-        <v>3.91318954008129</v>
+        <v>4.122447727204802</v>
       </c>
       <c r="O72" t="n">
-        <v>52.44867783108956</v>
+        <v>53.73250320142665</v>
       </c>
       <c r="P72" t="n">
-        <v>3.496578522072638</v>
+        <v>3.58216688009511</v>
       </c>
       <c r="Q72" t="n">
-        <v>57.03361741738494</v>
+        <v>59.18965698718431</v>
       </c>
       <c r="R72" t="n">
-        <v>3.59850802555402</v>
+        <v>3.729137518899693</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>3</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W72" t="n">
         <v>4</v>
@@ -10829,28 +10829,28 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="AE72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK72" t="n">
         <v>3</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM72" t="n">
         <v>3</v>
@@ -10865,16 +10865,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS72" t="n">
         <v>5</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -10889,112 +10889,112 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>52.44869913212554</v>
+        <v>52.53600475758</v>
       </c>
       <c r="D73" t="n">
-        <v>3.746335652294682</v>
+        <v>3.752571768398572</v>
       </c>
       <c r="E73" t="n">
-        <v>43.07533387480056</v>
+        <v>45.29574076802695</v>
       </c>
       <c r="F73" t="n">
-        <v>3.915939443163687</v>
+        <v>4.117794615275177</v>
       </c>
       <c r="G73" t="n">
-        <v>90.09456347530413</v>
+        <v>89.85245005633148</v>
       </c>
       <c r="H73" t="n">
-        <v>4.290217308347816</v>
+        <v>4.278688097920547</v>
       </c>
       <c r="I73" t="n">
-        <v>112.8737490564448</v>
+        <v>119.7490582928379</v>
       </c>
       <c r="J73" t="n">
-        <v>4.180509224312771</v>
+        <v>4.435150307142143</v>
       </c>
       <c r="K73" t="n">
-        <v>30.8638839704093</v>
+        <v>29.35985579286934</v>
       </c>
       <c r="L73" t="n">
-        <v>4.409126281487043</v>
+        <v>4.19426511326705</v>
       </c>
       <c r="M73" t="n">
-        <v>54.77637809992724</v>
+        <v>55.93155759424594</v>
       </c>
       <c r="N73" t="n">
-        <v>3.651758539995149</v>
+        <v>3.728770506283063</v>
       </c>
       <c r="O73" t="n">
-        <v>53.48766915541628</v>
+        <v>56.11203766813003</v>
       </c>
       <c r="P73" t="n">
-        <v>3.565844610361085</v>
+        <v>3.740802511208669</v>
       </c>
       <c r="Q73" t="n">
-        <v>62.51718239491827</v>
+        <v>64.11952927571737</v>
       </c>
       <c r="R73" t="n">
-        <v>3.96567586570889</v>
+        <v>4.035434702785031</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
         <v>7</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y73" t="n">
         <v>4</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC73" t="n">
         <v>7</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AE73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG73" t="n">
         <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK73" t="n">
         <v>4</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM73" t="n">
         <v>5</v>
